--- a/documents/Zeitplanung.xlsx
+++ b/documents/Zeitplanung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Desktop\Schule\4BT\Info\Memento Mori\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Desktop\Schule\4BT\Info\Memento Mori\Game\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A88918-0B4D-45E1-84CF-F8CA0FBA0E8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E64AB5-4323-499F-A12B-4CF1FDD74F5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{E8341DDC-0BE2-410A-A908-C1149408C9A9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>START</t>
   </si>
@@ -109,6 +109,18 @@
   <si>
     <t>Abnahmetests</t>
   </si>
+  <si>
+    <t>Legende</t>
+  </si>
+  <si>
+    <t>Geplante Zeit</t>
+  </si>
+  <si>
+    <t>Eingehalten/früher fertig</t>
+  </si>
+  <si>
+    <t>Überschritten</t>
+  </si>
 </sst>
 </file>
 
@@ -117,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +158,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF44CA14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,8 +185,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF44CA14"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -627,11 +664,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -715,6 +874,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -728,21 +930,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="212">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="140">
     <dxf>
       <fill>
         <patternFill>
@@ -837,539 +1025,49 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2217,6 +1915,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF44CA14"/>
+      <color rgb="FF009900"/>
       <color rgb="FFCCCCFF"/>
       <color rgb="FFDB6003"/>
     </mruColors>
@@ -2235,7 +1935,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007-2010">
+    <a:clrScheme name="Warmes Blau">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2243,34 +1943,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="242852"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="ACCBF9"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4A66AC"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="629DD1"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="297FD5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="7F8FA9"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5AA2AE"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="9D90A0"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="9454C3"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="3EBBF0"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -2529,10 +2229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05EE6A1A-C084-48AE-9164-F8A4B6DD7906}">
-  <dimension ref="A1:AM46"/>
+  <dimension ref="A1:AP59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2555,10 +2255,12 @@
     <col min="32" max="32" width="2.7109375" style="8" customWidth="1"/>
     <col min="33" max="37" width="2.7109375" style="1" customWidth="1"/>
     <col min="38" max="38" width="2.7109375" style="9" customWidth="1"/>
-    <col min="39" max="16384" width="11.42578125" style="1"/>
+    <col min="39" max="39" width="11.42578125" style="1"/>
+    <col min="40" max="40" width="17.28515625" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
@@ -2601,63 +2303,73 @@
       <c r="AJ1" s="40"/>
       <c r="AK1" s="40"/>
       <c r="AL1" s="41"/>
-      <c r="AM1" s="33"/>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="33"/>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="42"/>
-      <c r="D2" s="61">
+      <c r="D2" s="86">
         <f>D3</f>
         <v>44298</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="61">
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="86">
         <f t="shared" ref="K2" si="0">K3</f>
         <v>44305</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="61">
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="86">
         <f>R3</f>
         <v>44312</v>
       </c>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="61">
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="86">
         <f t="shared" ref="Y2" si="1">Y3</f>
         <v>44319</v>
       </c>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="61">
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="86">
         <f t="shared" ref="AF2" si="2">AF3</f>
         <v>44326</v>
       </c>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="33"/>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO2" s="81"/>
+      <c r="AP2" s="33"/>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="42"/>
       <c r="B3" s="4"/>
       <c r="C3" s="31"/>
@@ -2766,9 +2478,14 @@
       <c r="AL3" s="7">
         <v>44332</v>
       </c>
-      <c r="AM3" s="33"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM3" s="74"/>
+      <c r="AN3" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO3" s="83"/>
+      <c r="AP3" s="33"/>
+    </row>
+    <row r="4" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
         <v>3</v>
       </c>
@@ -2918,9 +2635,14 @@
         <f t="shared" ref="AL4" si="27">LEFT(TEXT(AL3, "ttt"),1)</f>
         <v>S</v>
       </c>
-      <c r="AM4" s="33"/>
-    </row>
-    <row r="5" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO4" s="85"/>
+      <c r="AP4" s="33"/>
+    </row>
+    <row r="5" spans="1:42" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>7</v>
       </c>
@@ -2962,9 +2684,11 @@
       <c r="AK5" s="18"/>
       <c r="AL5" s="19"/>
       <c r="AM5" s="20"/>
-    </row>
-    <row r="6" spans="1:39" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="AN5" s="75"/>
+      <c r="AO5" s="75"/>
+    </row>
+    <row r="6" spans="1:42" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="29">
@@ -3010,31 +2734,25 @@
       <c r="AL6" s="14"/>
       <c r="AM6" s="15"/>
     </row>
-    <row r="7" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="29">
-        <v>44298</v>
-      </c>
-      <c r="C7" s="32">
-        <v>44312</v>
-      </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="59"/>
+    <row r="7" spans="1:42" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="61"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="72"/>
       <c r="S7" s="57"/>
       <c r="T7" s="57"/>
       <c r="U7" s="57"/>
@@ -3057,15 +2775,15 @@
       <c r="AL7" s="14"/>
       <c r="AM7" s="15"/>
     </row>
-    <row r="8" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="29">
-        <v>44305</v>
+        <v>44298</v>
       </c>
       <c r="C8" s="32">
-        <v>44330</v>
+        <v>44312</v>
       </c>
       <c r="D8" s="59"/>
       <c r="E8" s="57"/>
@@ -3104,27 +2822,21 @@
       <c r="AL8" s="14"/>
       <c r="AM8" s="15"/>
     </row>
-    <row r="9" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="29">
-        <v>44298</v>
-      </c>
-      <c r="C9" s="32">
-        <v>44311</v>
-      </c>
+    <row r="9" spans="1:42" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="59"/>
       <c r="E9" s="57"/>
       <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
       <c r="O9" s="57"/>
       <c r="P9" s="57"/>
       <c r="Q9" s="58"/>
@@ -3151,12 +2863,12 @@
       <c r="AL9" s="14"/>
       <c r="AM9" s="15"/>
     </row>
-    <row r="10" spans="1:39" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="29">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="C10" s="32">
         <v>44330</v>
@@ -3198,7 +2910,7 @@
       <c r="AL10" s="14"/>
       <c r="AM10" s="15"/>
     </row>
-    <row r="11" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45"/>
       <c r="B11" s="29"/>
       <c r="C11" s="32"/>
@@ -3239,39 +2951,45 @@
       <c r="AL11" s="14"/>
       <c r="AM11" s="15"/>
     </row>
-    <row r="12" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="12"/>
+    <row r="12" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="29">
+        <v>44298</v>
+      </c>
+      <c r="C12" s="32">
+        <v>44311</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="58"/>
+      <c r="AF12" s="59"/>
       <c r="AG12" s="13"/>
       <c r="AH12" s="13"/>
       <c r="AI12" s="13"/>
@@ -3280,39 +2998,39 @@
       <c r="AL12" s="14"/>
       <c r="AM12" s="15"/>
     </row>
-    <row r="13" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
       <c r="B13" s="29"/>
       <c r="C13" s="32"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="12"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="59"/>
       <c r="AG13" s="13"/>
       <c r="AH13" s="13"/>
       <c r="AI13" s="13"/>
@@ -3321,39 +3039,45 @@
       <c r="AL13" s="14"/>
       <c r="AM13" s="15"/>
     </row>
-    <row r="14" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="12"/>
+    <row r="14" spans="1:42" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="29">
+        <v>44298</v>
+      </c>
+      <c r="C14" s="32">
+        <v>44330</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="57"/>
+      <c r="AD14" s="57"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="59"/>
       <c r="AG14" s="13"/>
       <c r="AH14" s="13"/>
       <c r="AI14" s="13"/>
@@ -3362,99 +3086,93 @@
       <c r="AL14" s="14"/>
       <c r="AM14" s="15"/>
     </row>
-    <row r="15" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="57"/>
+      <c r="AE15" s="58"/>
+      <c r="AF15" s="59"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="15"/>
+    </row>
+    <row r="16" spans="1:42" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="18"/>
-      <c r="AH15" s="18"/>
-      <c r="AI15" s="18"/>
-      <c r="AJ15" s="18"/>
-      <c r="AK15" s="18"/>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="20"/>
-    </row>
-    <row r="16" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="18"/>
+      <c r="AJ16" s="18"/>
+      <c r="AK16" s="18"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="20"/>
+    </row>
+    <row r="17" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="45" t="s">
         <v>13</v>
-      </c>
-      <c r="B16" s="29">
-        <v>44298</v>
-      </c>
-      <c r="C16" s="32">
-        <v>44311</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="14"/>
-      <c r="AM16" s="15"/>
-    </row>
-    <row r="17" spans="1:39" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
-        <v>14</v>
       </c>
       <c r="B17" s="29">
         <v>44298</v>
@@ -3499,27 +3217,21 @@
       <c r="AL17" s="14"/>
       <c r="AM17" s="15"/>
     </row>
-    <row r="18" spans="1:39" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="29">
-        <v>44301</v>
-      </c>
-      <c r="C18" s="32">
-        <v>44311</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
+    <row r="18" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="14"/>
@@ -3546,15 +3258,15 @@
       <c r="AL18" s="14"/>
       <c r="AM18" s="15"/>
     </row>
-    <row r="19" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="29">
-        <v>44301</v>
+        <v>44298</v>
       </c>
       <c r="C19" s="32">
-        <v>44301</v>
+        <v>44311</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="13"/>
@@ -3594,24 +3306,18 @@
       <c r="AM19" s="15"/>
     </row>
     <row r="20" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="29">
-        <v>44301</v>
-      </c>
-      <c r="C20" s="32">
-        <v>44311</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="13"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="70"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
@@ -3640,15 +3346,15 @@
       <c r="AL20" s="14"/>
       <c r="AM20" s="15"/>
     </row>
-    <row r="21" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
-        <v>17</v>
+    <row r="21" spans="1:39" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
+        <v>15</v>
       </c>
       <c r="B21" s="29">
+        <v>44301</v>
+      </c>
+      <c r="C21" s="32">
         <v>44311</v>
-      </c>
-      <c r="C21" s="32">
-        <v>44318</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="13"/>
@@ -3688,29 +3394,23 @@
       <c r="AM21" s="15"/>
     </row>
     <row r="22" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="29">
-        <v>44301</v>
-      </c>
-      <c r="C22" s="32">
-        <v>44330</v>
-      </c>
+      <c r="A22" s="45"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="12"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="14"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="71"/>
       <c r="R22" s="12"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
@@ -3735,14 +3435,14 @@
       <c r="AM22" s="15"/>
     </row>
     <row r="23" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>20</v>
+      <c r="A23" s="45" t="s">
+        <v>16</v>
       </c>
       <c r="B23" s="29">
-        <v>44305</v>
+        <v>44301</v>
       </c>
       <c r="C23" s="32">
-        <v>44330</v>
+        <v>44318</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="13"/>
@@ -3782,9 +3482,7 @@
       <c r="AM23" s="15"/>
     </row>
     <row r="24" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="A24" s="60"/>
       <c r="B24" s="29"/>
       <c r="C24" s="32"/>
       <c r="D24" s="12"/>
@@ -3826,10 +3524,14 @@
     </row>
     <row r="25" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="32"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="29">
+        <v>44301</v>
+      </c>
+      <c r="C25" s="32">
+        <v>44311</v>
+      </c>
       <c r="D25" s="12"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -3868,25 +3570,23 @@
       <c r="AM25" s="15"/>
     </row>
     <row r="26" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="A26" s="13"/>
       <c r="B26" s="29"/>
       <c r="C26" s="32"/>
       <c r="D26" s="12"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="14"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="71"/>
       <c r="R26" s="12"/>
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
@@ -3911,11 +3611,15 @@
       <c r="AM26" s="15"/>
     </row>
     <row r="27" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="32"/>
+      <c r="A27" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="29">
+        <v>44311</v>
+      </c>
+      <c r="C27" s="32">
+        <v>44318</v>
+      </c>
       <c r="D27" s="12"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -3953,1148 +3657,1395 @@
       <c r="AL27" s="14"/>
       <c r="AM27" s="15"/>
     </row>
-    <row r="28" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
+    <row r="28" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="60"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="14"/>
+      <c r="AM28" s="15"/>
+    </row>
+    <row r="29" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="29">
+        <v>44301</v>
+      </c>
+      <c r="C29" s="32">
+        <v>44330</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="14"/>
+      <c r="AM29" s="15"/>
+    </row>
+    <row r="30" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="29"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="13"/>
+      <c r="AL30" s="14"/>
+      <c r="AM30" s="15"/>
+    </row>
+    <row r="31" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="29">
+        <v>44305</v>
+      </c>
+      <c r="C31" s="32">
+        <v>44330</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="13"/>
+      <c r="AI31" s="13"/>
+      <c r="AJ31" s="13"/>
+      <c r="AK31" s="13"/>
+      <c r="AL31" s="14"/>
+      <c r="AM31" s="15"/>
+    </row>
+    <row r="32" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="29"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="13"/>
+      <c r="AL32" s="14"/>
+      <c r="AM32" s="15"/>
+    </row>
+    <row r="33" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="29">
+        <v>44326</v>
+      </c>
+      <c r="C33" s="32">
+        <v>44330</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
+      <c r="AI33" s="13"/>
+      <c r="AJ33" s="13"/>
+      <c r="AK33" s="13"/>
+      <c r="AL33" s="14"/>
+      <c r="AM33" s="15"/>
+    </row>
+    <row r="34" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="29"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="13"/>
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
+      <c r="AI34" s="13"/>
+      <c r="AJ34" s="13"/>
+      <c r="AK34" s="13"/>
+      <c r="AL34" s="14"/>
+      <c r="AM34" s="15"/>
+    </row>
+    <row r="35" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="29">
+        <v>44326</v>
+      </c>
+      <c r="C35" s="32">
+        <v>44330</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="13"/>
+      <c r="AJ35" s="13"/>
+      <c r="AK35" s="13"/>
+      <c r="AL35" s="14"/>
+      <c r="AM35" s="15"/>
+    </row>
+    <row r="36" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="29"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="13"/>
+      <c r="AI36" s="13"/>
+      <c r="AJ36" s="13"/>
+      <c r="AK36" s="13"/>
+      <c r="AL36" s="14"/>
+      <c r="AM36" s="15"/>
+    </row>
+    <row r="37" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="29">
+        <v>44326</v>
+      </c>
+      <c r="C37" s="32">
+        <v>44330</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="13"/>
+      <c r="AA37" s="13"/>
+      <c r="AB37" s="13"/>
+      <c r="AC37" s="13"/>
+      <c r="AD37" s="13"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="13"/>
+      <c r="AH37" s="13"/>
+      <c r="AI37" s="13"/>
+      <c r="AJ37" s="13"/>
+      <c r="AK37" s="13"/>
+      <c r="AL37" s="14"/>
+      <c r="AM37" s="15"/>
+    </row>
+    <row r="38" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="29"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="13"/>
+      <c r="AC38" s="13"/>
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="13"/>
+      <c r="AI38" s="13"/>
+      <c r="AJ38" s="13"/>
+      <c r="AK38" s="13"/>
+      <c r="AL38" s="14"/>
+      <c r="AM38" s="15"/>
+    </row>
+    <row r="39" spans="1:39" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="29">
+        <v>44326</v>
+      </c>
+      <c r="C39" s="32">
+        <v>44330</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="13"/>
+      <c r="AC39" s="13"/>
+      <c r="AD39" s="13"/>
+      <c r="AE39" s="14"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="13"/>
+      <c r="AI39" s="13"/>
+      <c r="AJ39" s="13"/>
+      <c r="AK39" s="13"/>
+      <c r="AL39" s="14"/>
+      <c r="AM39" s="15"/>
+    </row>
+    <row r="40" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="62"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="66"/>
+      <c r="R40" s="65"/>
+      <c r="S40" s="62"/>
+      <c r="T40" s="62"/>
+      <c r="U40" s="62"/>
+      <c r="V40" s="62"/>
+      <c r="W40" s="62"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="65"/>
+      <c r="Z40" s="62"/>
+      <c r="AA40" s="62"/>
+      <c r="AB40" s="62"/>
+      <c r="AC40" s="62"/>
+      <c r="AD40" s="62"/>
+      <c r="AE40" s="66"/>
+      <c r="AF40" s="65"/>
+      <c r="AG40" s="62"/>
+      <c r="AH40" s="62"/>
+      <c r="AI40" s="62"/>
+      <c r="AJ40" s="62"/>
+      <c r="AK40" s="62"/>
+      <c r="AL40" s="66"/>
+      <c r="AM40" s="67"/>
+    </row>
+    <row r="41" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="23"/>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="22"/>
-      <c r="AG28" s="23"/>
-      <c r="AH28" s="23"/>
-      <c r="AI28" s="23"/>
-      <c r="AJ28" s="23"/>
-      <c r="AK28" s="23"/>
-      <c r="AL28" s="24"/>
-      <c r="AM28" s="25"/>
-    </row>
-    <row r="29" spans="1:39" s="16" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="47" t="s">
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="24"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="23"/>
+      <c r="AA41" s="23"/>
+      <c r="AB41" s="23"/>
+      <c r="AC41" s="23"/>
+      <c r="AD41" s="23"/>
+      <c r="AE41" s="24"/>
+      <c r="AF41" s="22"/>
+      <c r="AG41" s="23"/>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="23"/>
+      <c r="AJ41" s="23"/>
+      <c r="AK41" s="23"/>
+      <c r="AL41" s="24"/>
+      <c r="AM41" s="25"/>
+    </row>
+    <row r="42" spans="1:39" s="16" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="52"/>
-      <c r="AF29" s="50"/>
-      <c r="AG29" s="51"/>
-      <c r="AH29" s="51"/>
-      <c r="AI29" s="51"/>
-      <c r="AJ29" s="51"/>
-      <c r="AK29" s="51"/>
-      <c r="AL29" s="52"/>
-      <c r="AM29" s="15"/>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="11"/>
-      <c r="AF30" s="10"/>
-      <c r="AG30" s="5"/>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="11"/>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="51"/>
+      <c r="T42" s="51"/>
+      <c r="U42" s="51"/>
+      <c r="V42" s="51"/>
+      <c r="W42" s="51"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="50"/>
+      <c r="Z42" s="51"/>
+      <c r="AA42" s="51"/>
+      <c r="AB42" s="51"/>
+      <c r="AC42" s="51"/>
+      <c r="AD42" s="51"/>
+      <c r="AE42" s="52"/>
+      <c r="AF42" s="50"/>
+      <c r="AG42" s="51"/>
+      <c r="AH42" s="51"/>
+      <c r="AI42" s="51"/>
+      <c r="AJ42" s="51"/>
+      <c r="AK42" s="51"/>
+      <c r="AL42" s="52"/>
+      <c r="AM42" s="15"/>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="11"/>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
     </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AN4:AO4"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="K2:Q2"/>
     <mergeCell ref="R2:X2"/>
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AL2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:J7 D15:AL23 D28:AL30">
-    <cfRule type="expression" dxfId="211" priority="5524" stopIfTrue="1">
-      <formula>_xludf.AND(D$3&gt;=$B7,D$3&lt;=$C7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:J7 D15:AL23 D28:AL29">
-    <cfRule type="expression" dxfId="210" priority="5521">
-      <formula>AND(D$3&gt;=$B7,D$3&lt;=$C7)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="209" priority="5523" stopIfTrue="1">
-      <formula>_xludf.AND(D$3&gt;=$B7,D$3&lt;=$C7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:J7 D15:AL23 D28:AL29">
-    <cfRule type="expression" dxfId="208" priority="5522" stopIfTrue="1">
-      <formula>_xludf.AND(D$3&gt;=$B7,D$3&lt;=$C7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7:Q7">
-    <cfRule type="expression" dxfId="207" priority="5518" stopIfTrue="1">
-      <formula>_xludf.AND(K$3&gt;=$B7,K$3&lt;=$C7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7:Q7">
-    <cfRule type="expression" dxfId="206" priority="5515">
-      <formula>AND(K$3&gt;=$B7,K$3&lt;=$C7)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="205" priority="5517" stopIfTrue="1">
-      <formula>_xludf.AND(K$3&gt;=$B7,K$3&lt;=$C7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7:Q7">
-    <cfRule type="expression" dxfId="204" priority="5516" stopIfTrue="1">
-      <formula>_xludf.AND(K$3&gt;=$B7,K$3&lt;=$C7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R7:X7">
-    <cfRule type="expression" dxfId="203" priority="5512" stopIfTrue="1">
-      <formula>_xludf.AND(R$3&gt;=$B7,R$3&lt;=$C7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R7:X7">
-    <cfRule type="expression" dxfId="202" priority="5509">
-      <formula>AND(R$3&gt;=$B7,R$3&lt;=$C7)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="201" priority="5511" stopIfTrue="1">
-      <formula>_xludf.AND(R$3&gt;=$B7,R$3&lt;=$C7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R7:X7">
-    <cfRule type="expression" dxfId="200" priority="5510" stopIfTrue="1">
-      <formula>_xludf.AND(R$3&gt;=$B7,R$3&lt;=$C7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y7:AE7">
-    <cfRule type="expression" dxfId="199" priority="5506" stopIfTrue="1">
-      <formula>_xludf.AND(Y$3&gt;=$B7,Y$3&lt;=$C7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y7:AE7">
-    <cfRule type="expression" dxfId="198" priority="5503">
-      <formula>AND(Y$3&gt;=$B7,Y$3&lt;=$C7)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="197" priority="5505" stopIfTrue="1">
-      <formula>_xludf.AND(Y$3&gt;=$B7,Y$3&lt;=$C7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y7:AE7">
-    <cfRule type="expression" dxfId="196" priority="5504" stopIfTrue="1">
-      <formula>_xludf.AND(Y$3&gt;=$B7,Y$3&lt;=$C7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF7:AL7">
-    <cfRule type="expression" dxfId="195" priority="5500" stopIfTrue="1">
-      <formula>_xludf.AND(AF$3&gt;=$B7,AF$3&lt;=$C7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF7:AL7">
-    <cfRule type="expression" dxfId="194" priority="5497">
-      <formula>AND(AF$3&gt;=$B7,AF$3&lt;=$C7)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="193" priority="5499" stopIfTrue="1">
-      <formula>_xludf.AND(AF$3&gt;=$B7,AF$3&lt;=$C7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF7:AL7">
-    <cfRule type="expression" dxfId="192" priority="5498" stopIfTrue="1">
-      <formula>_xludf.AND(AF$3&gt;=$B7,AF$3&lt;=$C7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:J8">
-    <cfRule type="expression" dxfId="191" priority="5351" stopIfTrue="1">
+  <conditionalFormatting sqref="D8:J9 D16:AL43">
+    <cfRule type="expression" dxfId="139" priority="5539" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B8,D$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:J8">
-    <cfRule type="expression" dxfId="190" priority="5348">
+  <conditionalFormatting sqref="D8:J9 D16:AL42">
+    <cfRule type="expression" dxfId="138" priority="5536">
       <formula>AND(D$3&gt;=$B8,D$3&lt;=$C8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="5350" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="5538" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B8,D$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:J8">
-    <cfRule type="expression" dxfId="188" priority="5349" stopIfTrue="1">
+  <conditionalFormatting sqref="D8:J9 D16:AL42">
+    <cfRule type="expression" dxfId="136" priority="5537" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B8,D$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:Q8">
-    <cfRule type="expression" dxfId="187" priority="5346" stopIfTrue="1">
+  <conditionalFormatting sqref="K8:Q9">
+    <cfRule type="expression" dxfId="135" priority="5533" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B8,K$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:Q8">
-    <cfRule type="expression" dxfId="186" priority="5343">
+  <conditionalFormatting sqref="K8:Q9">
+    <cfRule type="expression" dxfId="134" priority="5530">
       <formula>AND(K$3&gt;=$B8,K$3&lt;=$C8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="5345" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="5532" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B8,K$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:Q8">
-    <cfRule type="expression" dxfId="184" priority="5344" stopIfTrue="1">
+  <conditionalFormatting sqref="K8:Q9">
+    <cfRule type="expression" dxfId="132" priority="5531" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B8,K$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8:X8">
-    <cfRule type="expression" dxfId="183" priority="5341" stopIfTrue="1">
+  <conditionalFormatting sqref="R8:X9">
+    <cfRule type="expression" dxfId="131" priority="5527" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B8,R$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8:X8">
-    <cfRule type="expression" dxfId="182" priority="5338">
+  <conditionalFormatting sqref="R8:X9">
+    <cfRule type="expression" dxfId="130" priority="5524">
       <formula>AND(R$3&gt;=$B8,R$3&lt;=$C8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="5340" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="5526" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B8,R$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8:X8">
-    <cfRule type="expression" dxfId="180" priority="5339" stopIfTrue="1">
+  <conditionalFormatting sqref="R8:X9">
+    <cfRule type="expression" dxfId="128" priority="5525" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B8,R$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y8:AE8">
-    <cfRule type="expression" dxfId="179" priority="5336" stopIfTrue="1">
+  <conditionalFormatting sqref="Y8:AE9">
+    <cfRule type="expression" dxfId="127" priority="5521" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B8,Y$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y8:AE8">
-    <cfRule type="expression" dxfId="178" priority="5333">
+  <conditionalFormatting sqref="Y8:AE9">
+    <cfRule type="expression" dxfId="126" priority="5518">
       <formula>AND(Y$3&gt;=$B8,Y$3&lt;=$C8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="5335" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="5520" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B8,Y$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y8:AE8">
-    <cfRule type="expression" dxfId="176" priority="5334" stopIfTrue="1">
+  <conditionalFormatting sqref="Y8:AE9">
+    <cfRule type="expression" dxfId="124" priority="5519" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B8,Y$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF8:AL8">
-    <cfRule type="expression" dxfId="175" priority="5331" stopIfTrue="1">
+  <conditionalFormatting sqref="AF8:AL9">
+    <cfRule type="expression" dxfId="123" priority="5515" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B8,AF$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF8:AL8">
-    <cfRule type="expression" dxfId="174" priority="5328">
+  <conditionalFormatting sqref="AF8:AL9">
+    <cfRule type="expression" dxfId="122" priority="5512">
       <formula>AND(AF$3&gt;=$B8,AF$3&lt;=$C8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="5330" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="5514" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B8,AF$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF8:AL8">
-    <cfRule type="expression" dxfId="172" priority="5329" stopIfTrue="1">
+  <conditionalFormatting sqref="AF8:AL9">
+    <cfRule type="expression" dxfId="120" priority="5513" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B8,AF$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:J9">
-    <cfRule type="expression" dxfId="171" priority="5206" stopIfTrue="1">
-      <formula>_xludf.AND(D$3&gt;=$B9,D$3&lt;=$C9)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:J9">
-    <cfRule type="expression" dxfId="170" priority="5203">
-      <formula>AND(D$3&gt;=$B9,D$3&lt;=$C9)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="169" priority="5205" stopIfTrue="1">
-      <formula>_xludf.AND(D$3&gt;=$B9,D$3&lt;=$C9)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:J9">
-    <cfRule type="expression" dxfId="168" priority="5204" stopIfTrue="1">
-      <formula>_xludf.AND(D$3&gt;=$B9,D$3&lt;=$C9)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9:Q9">
-    <cfRule type="expression" dxfId="167" priority="5201" stopIfTrue="1">
-      <formula>_xludf.AND(K$3&gt;=$B9,K$3&lt;=$C9)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9:Q9">
-    <cfRule type="expression" dxfId="166" priority="5198">
-      <formula>AND(K$3&gt;=$B9,K$3&lt;=$C9)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="165" priority="5200" stopIfTrue="1">
-      <formula>_xludf.AND(K$3&gt;=$B9,K$3&lt;=$C9)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9:Q9">
-    <cfRule type="expression" dxfId="164" priority="5199" stopIfTrue="1">
-      <formula>_xludf.AND(K$3&gt;=$B9,K$3&lt;=$C9)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R9:X9">
-    <cfRule type="expression" dxfId="163" priority="5196" stopIfTrue="1">
-      <formula>_xludf.AND(R$3&gt;=$B9,R$3&lt;=$C9)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R9:X9">
-    <cfRule type="expression" dxfId="162" priority="5193">
-      <formula>AND(R$3&gt;=$B9,R$3&lt;=$C9)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="161" priority="5195" stopIfTrue="1">
-      <formula>_xludf.AND(R$3&gt;=$B9,R$3&lt;=$C9)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R9:X9">
-    <cfRule type="expression" dxfId="160" priority="5194" stopIfTrue="1">
-      <formula>_xludf.AND(R$3&gt;=$B9,R$3&lt;=$C9)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y9:AE9">
-    <cfRule type="expression" dxfId="159" priority="5191" stopIfTrue="1">
-      <formula>_xludf.AND(Y$3&gt;=$B9,Y$3&lt;=$C9)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y9:AE9">
-    <cfRule type="expression" dxfId="158" priority="5188">
-      <formula>AND(Y$3&gt;=$B9,Y$3&lt;=$C9)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="157" priority="5190" stopIfTrue="1">
-      <formula>_xludf.AND(Y$3&gt;=$B9,Y$3&lt;=$C9)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y9:AE9">
-    <cfRule type="expression" dxfId="156" priority="5189" stopIfTrue="1">
-      <formula>_xludf.AND(Y$3&gt;=$B9,Y$3&lt;=$C9)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF9:AL9">
-    <cfRule type="expression" dxfId="155" priority="5186" stopIfTrue="1">
-      <formula>_xludf.AND(AF$3&gt;=$B9,AF$3&lt;=$C9)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF9:AL9">
-    <cfRule type="expression" dxfId="154" priority="5183">
-      <formula>AND(AF$3&gt;=$B9,AF$3&lt;=$C9)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="153" priority="5185" stopIfTrue="1">
-      <formula>_xludf.AND(AF$3&gt;=$B9,AF$3&lt;=$C9)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF9:AL9">
-    <cfRule type="expression" dxfId="152" priority="5184" stopIfTrue="1">
-      <formula>_xludf.AND(AF$3&gt;=$B9,AF$3&lt;=$C9)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:J10">
-    <cfRule type="expression" dxfId="151" priority="5061" stopIfTrue="1">
+  <conditionalFormatting sqref="D10:J11">
+    <cfRule type="expression" dxfId="119" priority="5366" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B10,D$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:J10">
-    <cfRule type="expression" dxfId="150" priority="5058">
+  <conditionalFormatting sqref="D10:J11">
+    <cfRule type="expression" dxfId="118" priority="5363">
       <formula>AND(D$3&gt;=$B10,D$3&lt;=$C10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="5060" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="5365" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B10,D$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:J10">
-    <cfRule type="expression" dxfId="148" priority="5059" stopIfTrue="1">
+  <conditionalFormatting sqref="D10:J11">
+    <cfRule type="expression" dxfId="116" priority="5364" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B10,D$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:Q10">
-    <cfRule type="expression" dxfId="147" priority="5056" stopIfTrue="1">
+  <conditionalFormatting sqref="K10:Q11">
+    <cfRule type="expression" dxfId="115" priority="5361" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B10,K$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:Q10">
-    <cfRule type="expression" dxfId="146" priority="5053">
+  <conditionalFormatting sqref="K10:Q11">
+    <cfRule type="expression" dxfId="114" priority="5358">
       <formula>AND(K$3&gt;=$B10,K$3&lt;=$C10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="5055" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="5360" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B10,K$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:Q10">
-    <cfRule type="expression" dxfId="144" priority="5054" stopIfTrue="1">
+  <conditionalFormatting sqref="K10:Q11">
+    <cfRule type="expression" dxfId="112" priority="5359" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B10,K$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R10:X10">
-    <cfRule type="expression" dxfId="143" priority="5051" stopIfTrue="1">
+  <conditionalFormatting sqref="R10:X11">
+    <cfRule type="expression" dxfId="111" priority="5356" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B10,R$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R10:X10">
-    <cfRule type="expression" dxfId="142" priority="5048">
+  <conditionalFormatting sqref="R10:X11">
+    <cfRule type="expression" dxfId="110" priority="5353">
       <formula>AND(R$3&gt;=$B10,R$3&lt;=$C10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="5050" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="5355" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B10,R$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R10:X10">
-    <cfRule type="expression" dxfId="140" priority="5049" stopIfTrue="1">
+  <conditionalFormatting sqref="R10:X11">
+    <cfRule type="expression" dxfId="108" priority="5354" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B10,R$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y10:AE10">
-    <cfRule type="expression" dxfId="139" priority="5046" stopIfTrue="1">
+  <conditionalFormatting sqref="Y10:AE11">
+    <cfRule type="expression" dxfId="107" priority="5351" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B10,Y$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y10:AE10">
-    <cfRule type="expression" dxfId="138" priority="5043">
+  <conditionalFormatting sqref="Y10:AE11">
+    <cfRule type="expression" dxfId="106" priority="5348">
       <formula>AND(Y$3&gt;=$B10,Y$3&lt;=$C10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="5045" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="5350" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B10,Y$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y10:AE10">
-    <cfRule type="expression" dxfId="136" priority="5044" stopIfTrue="1">
+  <conditionalFormatting sqref="Y10:AE11">
+    <cfRule type="expression" dxfId="104" priority="5349" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B10,Y$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF10:AL10">
-    <cfRule type="expression" dxfId="135" priority="5041" stopIfTrue="1">
+  <conditionalFormatting sqref="AF10:AL11">
+    <cfRule type="expression" dxfId="103" priority="5346" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B10,AF$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF10:AL10">
-    <cfRule type="expression" dxfId="134" priority="5038">
+  <conditionalFormatting sqref="AF10:AL11">
+    <cfRule type="expression" dxfId="102" priority="5343">
       <formula>AND(AF$3&gt;=$B10,AF$3&lt;=$C10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="5040" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="5345" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B10,AF$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF10:AL10">
-    <cfRule type="expression" dxfId="132" priority="5039" stopIfTrue="1">
+  <conditionalFormatting sqref="AF10:AL11">
+    <cfRule type="expression" dxfId="100" priority="5344" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B10,AF$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:J11">
-    <cfRule type="expression" dxfId="131" priority="4916" stopIfTrue="1">
-      <formula>_xludf.AND(D$3&gt;=$B11,D$3&lt;=$C11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:J11">
-    <cfRule type="expression" dxfId="130" priority="4913">
-      <formula>AND(D$3&gt;=$B11,D$3&lt;=$C11)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="129" priority="4915" stopIfTrue="1">
-      <formula>_xludf.AND(D$3&gt;=$B11,D$3&lt;=$C11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:J11">
-    <cfRule type="expression" dxfId="128" priority="4914" stopIfTrue="1">
-      <formula>_xludf.AND(D$3&gt;=$B11,D$3&lt;=$C11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11:Q11">
-    <cfRule type="expression" dxfId="127" priority="4911" stopIfTrue="1">
-      <formula>_xludf.AND(K$3&gt;=$B11,K$3&lt;=$C11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11:Q11">
-    <cfRule type="expression" dxfId="126" priority="4908">
-      <formula>AND(K$3&gt;=$B11,K$3&lt;=$C11)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="125" priority="4910" stopIfTrue="1">
-      <formula>_xludf.AND(K$3&gt;=$B11,K$3&lt;=$C11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11:Q11">
-    <cfRule type="expression" dxfId="124" priority="4909" stopIfTrue="1">
-      <formula>_xludf.AND(K$3&gt;=$B11,K$3&lt;=$C11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R11:X11">
-    <cfRule type="expression" dxfId="123" priority="4906" stopIfTrue="1">
-      <formula>_xludf.AND(R$3&gt;=$B11,R$3&lt;=$C11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R11:X11">
-    <cfRule type="expression" dxfId="122" priority="4903">
-      <formula>AND(R$3&gt;=$B11,R$3&lt;=$C11)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="4905" stopIfTrue="1">
-      <formula>_xludf.AND(R$3&gt;=$B11,R$3&lt;=$C11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R11:X11">
-    <cfRule type="expression" dxfId="120" priority="4904" stopIfTrue="1">
-      <formula>_xludf.AND(R$3&gt;=$B11,R$3&lt;=$C11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y11:AE11">
-    <cfRule type="expression" dxfId="119" priority="4901" stopIfTrue="1">
-      <formula>_xludf.AND(Y$3&gt;=$B11,Y$3&lt;=$C11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y11:AE11">
-    <cfRule type="expression" dxfId="118" priority="4898">
-      <formula>AND(Y$3&gt;=$B11,Y$3&lt;=$C11)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="4900" stopIfTrue="1">
-      <formula>_xludf.AND(Y$3&gt;=$B11,Y$3&lt;=$C11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y11:AE11">
-    <cfRule type="expression" dxfId="116" priority="4899" stopIfTrue="1">
-      <formula>_xludf.AND(Y$3&gt;=$B11,Y$3&lt;=$C11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF11:AL11">
-    <cfRule type="expression" dxfId="115" priority="4896" stopIfTrue="1">
-      <formula>_xludf.AND(AF$3&gt;=$B11,AF$3&lt;=$C11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF11:AL11">
-    <cfRule type="expression" dxfId="114" priority="4893">
-      <formula>AND(AF$3&gt;=$B11,AF$3&lt;=$C11)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="4895" stopIfTrue="1">
-      <formula>_xludf.AND(AF$3&gt;=$B11,AF$3&lt;=$C11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF11:AL11">
-    <cfRule type="expression" dxfId="112" priority="4894" stopIfTrue="1">
-      <formula>_xludf.AND(AF$3&gt;=$B11,AF$3&lt;=$C11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:J12">
-    <cfRule type="expression" dxfId="111" priority="4771" stopIfTrue="1">
+  <conditionalFormatting sqref="D12:J13">
+    <cfRule type="expression" dxfId="99" priority="5221" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B12,D$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:J12">
-    <cfRule type="expression" dxfId="110" priority="4768">
+  <conditionalFormatting sqref="D12:J13">
+    <cfRule type="expression" dxfId="98" priority="5218">
       <formula>AND(D$3&gt;=$B12,D$3&lt;=$C12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="4770" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="5220" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B12,D$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:J12">
-    <cfRule type="expression" dxfId="108" priority="4769" stopIfTrue="1">
+  <conditionalFormatting sqref="D12:J13">
+    <cfRule type="expression" dxfId="96" priority="5219" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B12,D$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:Q12">
-    <cfRule type="expression" dxfId="107" priority="4766" stopIfTrue="1">
+  <conditionalFormatting sqref="K12:Q13">
+    <cfRule type="expression" dxfId="95" priority="5216" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B12,K$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:Q12">
-    <cfRule type="expression" dxfId="106" priority="4763">
+  <conditionalFormatting sqref="K12:Q13">
+    <cfRule type="expression" dxfId="94" priority="5213">
       <formula>AND(K$3&gt;=$B12,K$3&lt;=$C12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="4765" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="5215" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B12,K$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:Q12">
-    <cfRule type="expression" dxfId="104" priority="4764" stopIfTrue="1">
+  <conditionalFormatting sqref="K12:Q13">
+    <cfRule type="expression" dxfId="92" priority="5214" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B12,K$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R12:X12">
-    <cfRule type="expression" dxfId="103" priority="4761" stopIfTrue="1">
+  <conditionalFormatting sqref="R12:X13">
+    <cfRule type="expression" dxfId="91" priority="5211" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B12,R$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R12:X12">
-    <cfRule type="expression" dxfId="102" priority="4758">
+  <conditionalFormatting sqref="R12:X13">
+    <cfRule type="expression" dxfId="90" priority="5208">
       <formula>AND(R$3&gt;=$B12,R$3&lt;=$C12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="4760" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="5210" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B12,R$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R12:X12">
-    <cfRule type="expression" dxfId="100" priority="4759" stopIfTrue="1">
+  <conditionalFormatting sqref="R12:X13">
+    <cfRule type="expression" dxfId="88" priority="5209" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B12,R$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y12:AE12">
-    <cfRule type="expression" dxfId="99" priority="4756" stopIfTrue="1">
+  <conditionalFormatting sqref="Y12:AE13">
+    <cfRule type="expression" dxfId="87" priority="5206" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B12,Y$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y12:AE12">
-    <cfRule type="expression" dxfId="98" priority="4753">
+  <conditionalFormatting sqref="Y12:AE13">
+    <cfRule type="expression" dxfId="86" priority="5203">
       <formula>AND(Y$3&gt;=$B12,Y$3&lt;=$C12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="4755" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="5205" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B12,Y$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y12:AE12">
-    <cfRule type="expression" dxfId="96" priority="4754" stopIfTrue="1">
+  <conditionalFormatting sqref="Y12:AE13">
+    <cfRule type="expression" dxfId="84" priority="5204" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B12,Y$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF12:AL12">
-    <cfRule type="expression" dxfId="95" priority="4751" stopIfTrue="1">
+  <conditionalFormatting sqref="AF12:AL13">
+    <cfRule type="expression" dxfId="83" priority="5201" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B12,AF$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF12:AL12">
-    <cfRule type="expression" dxfId="94" priority="4748">
+  <conditionalFormatting sqref="AF12:AL13">
+    <cfRule type="expression" dxfId="82" priority="5198">
       <formula>AND(AF$3&gt;=$B12,AF$3&lt;=$C12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="4750" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="5200" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B12,AF$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF12:AL12">
-    <cfRule type="expression" dxfId="92" priority="4749" stopIfTrue="1">
+  <conditionalFormatting sqref="AF12:AL13">
+    <cfRule type="expression" dxfId="80" priority="5199" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B12,AF$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:J14">
-    <cfRule type="expression" dxfId="91" priority="4626" stopIfTrue="1">
+  <conditionalFormatting sqref="D14:J15">
+    <cfRule type="expression" dxfId="79" priority="5076" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B14,D$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:J14">
-    <cfRule type="expression" dxfId="90" priority="4623">
+  <conditionalFormatting sqref="D14:J15">
+    <cfRule type="expression" dxfId="78" priority="5073">
       <formula>AND(D$3&gt;=$B14,D$3&lt;=$C14)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="4625" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="5075" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B14,D$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:J14">
-    <cfRule type="expression" dxfId="88" priority="4624" stopIfTrue="1">
+  <conditionalFormatting sqref="D14:J15">
+    <cfRule type="expression" dxfId="76" priority="5074" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B14,D$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:Q14">
-    <cfRule type="expression" dxfId="87" priority="4621" stopIfTrue="1">
+  <conditionalFormatting sqref="K14:Q15">
+    <cfRule type="expression" dxfId="75" priority="5071" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B14,K$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:Q14">
-    <cfRule type="expression" dxfId="86" priority="4618">
+  <conditionalFormatting sqref="K14:Q15">
+    <cfRule type="expression" dxfId="74" priority="5068">
       <formula>AND(K$3&gt;=$B14,K$3&lt;=$C14)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="4620" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="5070" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B14,K$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:Q14">
-    <cfRule type="expression" dxfId="84" priority="4619" stopIfTrue="1">
+  <conditionalFormatting sqref="K14:Q15">
+    <cfRule type="expression" dxfId="72" priority="5069" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B14,K$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14:X14">
-    <cfRule type="expression" dxfId="83" priority="4616" stopIfTrue="1">
+  <conditionalFormatting sqref="R14:X15">
+    <cfRule type="expression" dxfId="71" priority="5066" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B14,R$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14:X14">
-    <cfRule type="expression" dxfId="82" priority="4613">
+  <conditionalFormatting sqref="R14:X15">
+    <cfRule type="expression" dxfId="70" priority="5063">
       <formula>AND(R$3&gt;=$B14,R$3&lt;=$C14)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="4615" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="5065" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B14,R$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14:X14">
-    <cfRule type="expression" dxfId="80" priority="4614" stopIfTrue="1">
+  <conditionalFormatting sqref="R14:X15">
+    <cfRule type="expression" dxfId="68" priority="5064" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B14,R$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y14:AE14">
-    <cfRule type="expression" dxfId="79" priority="4611" stopIfTrue="1">
+  <conditionalFormatting sqref="Y14:AE15">
+    <cfRule type="expression" dxfId="67" priority="5061" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B14,Y$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y14:AE14">
-    <cfRule type="expression" dxfId="78" priority="4608">
+  <conditionalFormatting sqref="Y14:AE15">
+    <cfRule type="expression" dxfId="66" priority="5058">
       <formula>AND(Y$3&gt;=$B14,Y$3&lt;=$C14)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="4610" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="5060" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B14,Y$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y14:AE14">
-    <cfRule type="expression" dxfId="76" priority="4609" stopIfTrue="1">
+  <conditionalFormatting sqref="Y14:AE15">
+    <cfRule type="expression" dxfId="64" priority="5059" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B14,Y$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF14:AL14">
-    <cfRule type="expression" dxfId="75" priority="4606" stopIfTrue="1">
+  <conditionalFormatting sqref="AF14:AL15">
+    <cfRule type="expression" dxfId="63" priority="5056" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B14,AF$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF14:AL14">
-    <cfRule type="expression" dxfId="74" priority="4603">
+  <conditionalFormatting sqref="AF14:AL15">
+    <cfRule type="expression" dxfId="62" priority="5053">
       <formula>AND(AF$3&gt;=$B14,AF$3&lt;=$C14)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="4605" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="5055" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B14,AF$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF14:AL14">
-    <cfRule type="expression" dxfId="72" priority="4604" stopIfTrue="1">
+  <conditionalFormatting sqref="AF14:AL15">
+    <cfRule type="expression" dxfId="60" priority="5054" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B14,AF$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:J6">
-    <cfRule type="expression" dxfId="71" priority="566" stopIfTrue="1">
+  <conditionalFormatting sqref="D6:J7">
+    <cfRule type="expression" dxfId="59" priority="581" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B6,D$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:J6">
-    <cfRule type="expression" dxfId="70" priority="563">
+  <conditionalFormatting sqref="D6:J7">
+    <cfRule type="expression" dxfId="58" priority="578">
       <formula>AND(D$3&gt;=$B6,D$3&lt;=$C6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="565" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="580" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B6,D$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:J6">
-    <cfRule type="expression" dxfId="68" priority="564" stopIfTrue="1">
+  <conditionalFormatting sqref="D6:J7">
+    <cfRule type="expression" dxfId="56" priority="579" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B6,D$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:Q6">
-    <cfRule type="expression" dxfId="67" priority="561" stopIfTrue="1">
+  <conditionalFormatting sqref="K6:Q7">
+    <cfRule type="expression" dxfId="55" priority="576" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B6,K$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:Q6">
-    <cfRule type="expression" dxfId="66" priority="558">
+  <conditionalFormatting sqref="K6:Q7">
+    <cfRule type="expression" dxfId="54" priority="573">
       <formula>AND(K$3&gt;=$B6,K$3&lt;=$C6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="560" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="575" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B6,K$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:Q6">
-    <cfRule type="expression" dxfId="64" priority="559" stopIfTrue="1">
+  <conditionalFormatting sqref="K6:Q7">
+    <cfRule type="expression" dxfId="52" priority="574" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B6,K$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R6:X6">
-    <cfRule type="expression" dxfId="63" priority="556" stopIfTrue="1">
+  <conditionalFormatting sqref="R6:X7">
+    <cfRule type="expression" dxfId="51" priority="571" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B6,R$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R6:X6">
-    <cfRule type="expression" dxfId="62" priority="553">
+  <conditionalFormatting sqref="R6:X7">
+    <cfRule type="expression" dxfId="50" priority="568">
       <formula>AND(R$3&gt;=$B6,R$3&lt;=$C6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="555" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="570" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B6,R$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R6:X6">
-    <cfRule type="expression" dxfId="60" priority="554" stopIfTrue="1">
+  <conditionalFormatting sqref="R6:X7">
+    <cfRule type="expression" dxfId="48" priority="569" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B6,R$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y6:AE6">
-    <cfRule type="expression" dxfId="59" priority="551" stopIfTrue="1">
+  <conditionalFormatting sqref="Y6:AE7">
+    <cfRule type="expression" dxfId="47" priority="566" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B6,Y$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y6:AE6">
-    <cfRule type="expression" dxfId="58" priority="548">
+  <conditionalFormatting sqref="Y6:AE7">
+    <cfRule type="expression" dxfId="46" priority="563">
       <formula>AND(Y$3&gt;=$B6,Y$3&lt;=$C6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="550" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="565" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B6,Y$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y6:AE6">
-    <cfRule type="expression" dxfId="56" priority="549" stopIfTrue="1">
+  <conditionalFormatting sqref="Y6:AE7">
+    <cfRule type="expression" dxfId="44" priority="564" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B6,Y$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF6:AL6">
-    <cfRule type="expression" dxfId="55" priority="546" stopIfTrue="1">
+  <conditionalFormatting sqref="AF6:AL7">
+    <cfRule type="expression" dxfId="43" priority="561" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B6,AF$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF6:AL6">
-    <cfRule type="expression" dxfId="54" priority="543">
+  <conditionalFormatting sqref="AF6:AL7">
+    <cfRule type="expression" dxfId="42" priority="558">
       <formula>AND(AF$3&gt;=$B6,AF$3&lt;=$C6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="545" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="560" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B6,AF$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF6:AL6">
-    <cfRule type="expression" dxfId="52" priority="544" stopIfTrue="1">
+  <conditionalFormatting sqref="AF6:AL7">
+    <cfRule type="expression" dxfId="40" priority="559" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B6,AF$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:J5">
-    <cfRule type="expression" dxfId="51" priority="421" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="436" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B5,D$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:J5">
-    <cfRule type="expression" dxfId="50" priority="418">
+    <cfRule type="expression" dxfId="38" priority="433">
       <formula>AND(D$3&gt;=$B5,D$3&lt;=$C5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="420" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="435" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B5,D$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:J5">
-    <cfRule type="expression" dxfId="48" priority="419" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="434" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B5,D$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:Q5">
-    <cfRule type="expression" dxfId="47" priority="416" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="431" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B5,K$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:Q5">
-    <cfRule type="expression" dxfId="46" priority="413">
+    <cfRule type="expression" dxfId="34" priority="428">
       <formula>AND(K$3&gt;=$B5,K$3&lt;=$C5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="415" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="430" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B5,K$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:Q5">
-    <cfRule type="expression" dxfId="44" priority="414" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="429" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B5,K$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:X5">
-    <cfRule type="expression" dxfId="43" priority="411" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="426" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B5,R$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:X5">
-    <cfRule type="expression" dxfId="42" priority="408">
+    <cfRule type="expression" dxfId="30" priority="423">
       <formula>AND(R$3&gt;=$B5,R$3&lt;=$C5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="410" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="425" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B5,R$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:X5">
-    <cfRule type="expression" dxfId="40" priority="409" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="424" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B5,R$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5:AE5">
-    <cfRule type="expression" dxfId="39" priority="406" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="421" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B5,Y$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5:AE5">
-    <cfRule type="expression" dxfId="38" priority="403">
+    <cfRule type="expression" dxfId="26" priority="418">
       <formula>AND(Y$3&gt;=$B5,Y$3&lt;=$C5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="405" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="420" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B5,Y$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5:AE5">
-    <cfRule type="expression" dxfId="36" priority="404" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="419" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B5,Y$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5:AL5">
-    <cfRule type="expression" dxfId="35" priority="401" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="416" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B5,AF$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5:AL5">
-    <cfRule type="expression" dxfId="34" priority="398">
+    <cfRule type="expression" dxfId="22" priority="413">
       <formula>AND(AF$3&gt;=$B5,AF$3&lt;=$C5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="400" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="415" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B5,AF$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5:AL5">
-    <cfRule type="expression" dxfId="32" priority="399" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="414" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B5,AF$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:J13">
-    <cfRule type="expression" dxfId="31" priority="121" stopIfTrue="1">
-      <formula>_xludf.AND(D$3&gt;=$B13,D$3&lt;=$C13)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:J13">
-    <cfRule type="expression" dxfId="30" priority="118">
-      <formula>AND(D$3&gt;=$B13,D$3&lt;=$C13)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="120" stopIfTrue="1">
-      <formula>_xludf.AND(D$3&gt;=$B13,D$3&lt;=$C13)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:J13">
-    <cfRule type="expression" dxfId="28" priority="119" stopIfTrue="1">
-      <formula>_xludf.AND(D$3&gt;=$B13,D$3&lt;=$C13)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13:Q13">
-    <cfRule type="expression" dxfId="27" priority="117" stopIfTrue="1">
-      <formula>_xludf.AND(K$3&gt;=$B13,K$3&lt;=$C13)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13:Q13">
-    <cfRule type="expression" dxfId="26" priority="114">
-      <formula>AND(K$3&gt;=$B13,K$3&lt;=$C13)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="116" stopIfTrue="1">
-      <formula>_xludf.AND(K$3&gt;=$B13,K$3&lt;=$C13)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13:Q13">
-    <cfRule type="expression" dxfId="24" priority="115" stopIfTrue="1">
-      <formula>_xludf.AND(K$3&gt;=$B13,K$3&lt;=$C13)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R13:X13">
-    <cfRule type="expression" dxfId="23" priority="113" stopIfTrue="1">
-      <formula>_xludf.AND(R$3&gt;=$B13,R$3&lt;=$C13)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R13:X13">
-    <cfRule type="expression" dxfId="22" priority="110">
-      <formula>AND(R$3&gt;=$B13,R$3&lt;=$C13)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="112" stopIfTrue="1">
-      <formula>_xludf.AND(R$3&gt;=$B13,R$3&lt;=$C13)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R13:X13">
-    <cfRule type="expression" dxfId="20" priority="111" stopIfTrue="1">
-      <formula>_xludf.AND(R$3&gt;=$B13,R$3&lt;=$C13)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y13:AE13">
-    <cfRule type="expression" dxfId="19" priority="109" stopIfTrue="1">
-      <formula>_xludf.AND(Y$3&gt;=$B13,Y$3&lt;=$C13)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y13:AE13">
-    <cfRule type="expression" dxfId="18" priority="106">
-      <formula>AND(Y$3&gt;=$B13,Y$3&lt;=$C13)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="108" stopIfTrue="1">
-      <formula>_xludf.AND(Y$3&gt;=$B13,Y$3&lt;=$C13)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y13:AE13">
-    <cfRule type="expression" dxfId="16" priority="107" stopIfTrue="1">
-      <formula>_xludf.AND(Y$3&gt;=$B13,Y$3&lt;=$C13)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF13:AL13">
-    <cfRule type="expression" dxfId="15" priority="105" stopIfTrue="1">
-      <formula>_xludf.AND(AF$3&gt;=$B13,AF$3&lt;=$C13)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF13:AL13">
-    <cfRule type="expression" dxfId="14" priority="102">
-      <formula>AND(AF$3&gt;=$B13,AF$3&lt;=$C13)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="104" stopIfTrue="1">
-      <formula>_xludf.AND(AF$3&gt;=$B13,AF$3&lt;=$C13)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF13:AL13">
-    <cfRule type="expression" dxfId="12" priority="103" stopIfTrue="1">
-      <formula>_xludf.AND(AF$3&gt;=$B13,AF$3&lt;=$C13)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:AL28 D13:AL14">
-    <cfRule type="expression" dxfId="11" priority="6726" stopIfTrue="1">
-      <formula>_xludf.AND(WUO$3&gt;=$B1048534,WUO$3&lt;=$C1048534)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:AL29">
-    <cfRule type="expression" dxfId="10" priority="6727" stopIfTrue="1">
-      <formula>_xludf.AND(WUO$3&gt;=$B1048547,WUO$3&lt;=$C1048547)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:AL17">
-    <cfRule type="expression" dxfId="9" priority="6729" stopIfTrue="1">
+  <conditionalFormatting sqref="D41:AL41">
+    <cfRule type="expression" dxfId="19" priority="6741" stopIfTrue="1">
+      <formula>_xludf.AND(WUO$3&gt;=$B1048562,WUO$3&lt;=$C1048562)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:AL42">
+    <cfRule type="expression" dxfId="18" priority="6742" stopIfTrue="1">
+      <formula>_xludf.AND(WUO$3&gt;=$B1048560,WUO$3&lt;=$C1048560)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:AL40">
+    <cfRule type="expression" dxfId="17" priority="6761" stopIfTrue="1">
+      <formula>_xludf.AND(WUO$3&gt;=$B1048564,WUO$3&lt;=$C1048564)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:AL32">
+    <cfRule type="expression" dxfId="16" priority="6779" stopIfTrue="1">
+      <formula>_xludf.AND(WUO$3&gt;=$B1048558,WUO$3&lt;=$C1048558)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:AL38">
+    <cfRule type="expression" dxfId="15" priority="6829" stopIfTrue="1">
+      <formula>_xludf.AND(WUO$3&gt;=$B1048565,WUO$3&lt;=$C1048565)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:AL36">
+    <cfRule type="expression" dxfId="14" priority="6841" stopIfTrue="1">
+      <formula>_xludf.AND(WUO$3&gt;=$B1048564,WUO$3&lt;=$C1048564)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:AL34">
+    <cfRule type="expression" dxfId="13" priority="6852" stopIfTrue="1">
+      <formula>_xludf.AND(WUO$3&gt;=$B1048563,WUO$3&lt;=$C1048563)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:AL30 D14:AL15">
+    <cfRule type="expression" dxfId="12" priority="6864" stopIfTrue="1">
+      <formula>_xludf.AND(WUO$3&gt;=$B1048545,WUO$3&lt;=$C1048545)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:AL13">
+    <cfRule type="expression" dxfId="11" priority="6877" stopIfTrue="1">
       <formula>_xludf.AND(WUO$3&gt;=$B1048544,WUO$3&lt;=$C1048544)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:AL27">
-    <cfRule type="expression" dxfId="8" priority="6746" stopIfTrue="1">
-      <formula>_xludf.AND(WUO$3&gt;=$B1048551,WUO$3&lt;=$C1048551)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:AL23 D5:AL12">
-    <cfRule type="expression" dxfId="7" priority="6757" stopIfTrue="1">
-      <formula>_xludf.AND(WUO$3&gt;=$B1048527,WUO$3&lt;=$C1048527)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:AL27">
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
-      <formula>_xludf.AND(D$3&gt;=$B24,D$3&lt;=$C24)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:AL27">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>AND(D$3&gt;=$B24,D$3&lt;=$C24)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
-      <formula>_xludf.AND(D$3&gt;=$B24,D$3&lt;=$C24)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:AL27">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
-      <formula>_xludf.AND(D$3&gt;=$B24,D$3&lt;=$C24)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:AL22">
-    <cfRule type="expression" dxfId="2" priority="6764" stopIfTrue="1">
-      <formula>_xludf.AND(WUO$3&gt;=$B1048547,WUO$3&lt;=$C1048547)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18:AL21 D24:AL26">
-    <cfRule type="expression" dxfId="1" priority="6769" stopIfTrue="1">
-      <formula>_xludf.AND(WUO$3&gt;=$B1048544,WUO$3&lt;=$C1048544)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:AL16">
-    <cfRule type="expression" dxfId="0" priority="6771" stopIfTrue="1">
+  <conditionalFormatting sqref="D27:AL28 D10:AL11">
+    <cfRule type="expression" dxfId="10" priority="6892" stopIfTrue="1">
       <formula>_xludf.AND(WUO$3&gt;=$B1048543,WUO$3&lt;=$C1048543)</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <conditionalFormatting sqref="D8:AL9 D25:AL26">
+    <cfRule type="expression" dxfId="9" priority="6908" stopIfTrue="1">
+      <formula>_xludf.AND(WUO$3&gt;=$B1048542,WUO$3&lt;=$C1048542)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:AL7 D23:AL24">
+    <cfRule type="expression" dxfId="8" priority="6923" stopIfTrue="1">
+      <formula>_xludf.AND(WUO$3&gt;=$B1048540,WUO$3&lt;=$C1048540)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:AL20">
+    <cfRule type="expression" dxfId="7" priority="6938" stopIfTrue="1">
+      <formula>_xludf.AND(WUO$3&gt;=$B1048557,WUO$3&lt;=$C1048557)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:AL22">
+    <cfRule type="expression" dxfId="6" priority="6939" stopIfTrue="1">
+      <formula>_xludf.AND(WUO$3&gt;=$B1048557,WUO$3&lt;=$C1048557)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:AL18">
+    <cfRule type="expression" dxfId="5" priority="6940" stopIfTrue="1">
+      <formula>_xludf.AND(WUO$3&gt;=$B1048556,WUO$3&lt;=$C1048556)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN2">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+      <formula>_xludf.AND(AN$3&gt;=$B2,AN$3&lt;=$C2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN2">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>AND(AN$3&gt;=$B2,AN$3&lt;=$C2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>_xludf.AND(AN$3&gt;=$B2,AN$3&lt;=$C2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN2">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>_xludf.AND(AN$3&gt;=$B2,AN$3&lt;=$C2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN2">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>_xludf.AND(WVY$3&gt;=$B1048537,WVY$3&lt;=$C1048537)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5320,16 +5271,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56136714-20B7-407D-BBF6-257A69EBB16A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="a79f06d0-d91c-4d9e-9d4b-10d5a51bed99"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="72ba5ab6-94b4-4976-9c37-49387433fc2a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documents/Zeitplanung.xlsx
+++ b/documents/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Desktop\Schule\4BT\Info\Memento Mori\Game\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E64AB5-4323-499F-A12B-4CF1FDD74F5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E6900B-0163-459D-A92C-4F4F9D3F4665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{E8341DDC-0BE2-410A-A908-C1149408C9A9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>START</t>
   </si>
@@ -121,6 +121,9 @@
   <si>
     <t>Überschritten</t>
   </si>
+  <si>
+    <t>Verlängert</t>
+  </si>
 </sst>
 </file>
 
@@ -166,7 +169,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +203,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,19 +431,6 @@
       <left/>
       <right style="thin">
         <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
       </right>
       <top style="thin">
         <color theme="1" tint="0.499984740745262"/>
@@ -676,15 +672,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
       </left>
@@ -693,71 +680,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -786,11 +708,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -806,26 +817,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -834,36 +842,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -874,47 +882,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -926,18 +918,41 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="140">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="168">
     <dxf>
       <fill>
         <patternFill>
@@ -963,6 +978,209 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2229,10 +2447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05EE6A1A-C084-48AE-9164-F8A4B6DD7906}">
-  <dimension ref="A1:AP59"/>
+  <dimension ref="A1:AY59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,124 +2473,145 @@
     <col min="32" max="32" width="2.7109375" style="8" customWidth="1"/>
     <col min="33" max="37" width="2.7109375" style="1" customWidth="1"/>
     <col min="38" max="38" width="2.7109375" style="9" customWidth="1"/>
-    <col min="39" max="39" width="11.42578125" style="1"/>
-    <col min="40" max="40" width="17.28515625" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="11.42578125" style="1"/>
+    <col min="39" max="39" width="2.7109375" style="8" customWidth="1"/>
+    <col min="40" max="44" width="2.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="2.7109375" style="9" customWidth="1"/>
+    <col min="46" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37">
+      <c r="B1" s="34">
         <v>44298</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="74"/>
-      <c r="AN1" s="36" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="38"/>
+      <c r="AU1" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="AO1" s="76"/>
-      <c r="AP1" s="33"/>
+      <c r="AV1" s="85"/>
+      <c r="AW1" s="85"/>
+      <c r="AX1" s="86"/>
+      <c r="AY1" s="30"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="D2" s="86">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="D2" s="75">
         <f>D3</f>
         <v>44298</v>
       </c>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="86">
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="75">
         <f t="shared" ref="K2" si="0">K3</f>
         <v>44305</v>
       </c>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="86">
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="75">
         <f>R3</f>
         <v>44312</v>
       </c>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="86">
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="75">
         <f t="shared" ref="Y2" si="1">Y3</f>
         <v>44319</v>
       </c>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="86">
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="75">
         <f t="shared" ref="AF2" si="2">AF3</f>
         <v>44326</v>
       </c>
-      <c r="AG2" s="87"/>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="87"/>
-      <c r="AJ2" s="87"/>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="74"/>
-      <c r="AN2" s="80" t="s">
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="77"/>
+      <c r="AM2" s="75">
+        <v>44333</v>
+      </c>
+      <c r="AN2" s="76"/>
+      <c r="AO2" s="76"/>
+      <c r="AP2" s="76"/>
+      <c r="AQ2" s="76"/>
+      <c r="AR2" s="76"/>
+      <c r="AS2" s="77"/>
+      <c r="AU2" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="AO2" s="81"/>
-      <c r="AP2" s="33"/>
+      <c r="AV2" s="79"/>
+      <c r="AW2" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX2" s="81"/>
+      <c r="AY2" s="30"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
+    <row r="3" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="31"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="7">
         <v>44298</v>
       </c>
@@ -2478,21 +2717,45 @@
       <c r="AL3" s="7">
         <v>44332</v>
       </c>
-      <c r="AM3" s="74"/>
-      <c r="AN3" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO3" s="83"/>
-      <c r="AP3" s="33"/>
+      <c r="AM3" s="7">
+        <v>44333</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>44334</v>
+      </c>
+      <c r="AO3" s="7">
+        <v>44335</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>44336</v>
+      </c>
+      <c r="AQ3" s="7">
+        <v>44337</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>44338</v>
+      </c>
+      <c r="AS3" s="7">
+        <v>44339</v>
+      </c>
+      <c r="AU3" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV3" s="74"/>
+      <c r="AW3" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX3" s="83"/>
+      <c r="AY3" s="30"/>
     </row>
-    <row r="4" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="24" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="8" t="str">
@@ -2632,552 +2895,648 @@
         <v>S</v>
       </c>
       <c r="AL4" s="9" t="str">
-        <f t="shared" ref="AL4" si="27">LEFT(TEXT(AL3, "ttt"),1)</f>
+        <f t="shared" ref="AL4:AR4" si="27">LEFT(TEXT(AL3, "ttt"),1)</f>
         <v>S</v>
       </c>
-      <c r="AM4" s="74"/>
-      <c r="AN4" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO4" s="85"/>
-      <c r="AP4" s="33"/>
+      <c r="AM4" s="8" t="str">
+        <f t="shared" si="27"/>
+        <v>M</v>
+      </c>
+      <c r="AN4" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>D</v>
+      </c>
+      <c r="AO4" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>M</v>
+      </c>
+      <c r="AP4" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>D</v>
+      </c>
+      <c r="AQ4" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>F</v>
+      </c>
+      <c r="AR4" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>S</v>
+      </c>
+      <c r="AS4" s="9" t="str">
+        <f t="shared" ref="AS4" si="28">LEFT(TEXT(AS3, "ttt"),1)</f>
+        <v>S</v>
+      </c>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
     </row>
-    <row r="5" spans="1:42" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+    <row r="5" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="18"/>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="20"/>
-      <c r="AN5" s="75"/>
-      <c r="AO5" s="75"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="17"/>
+      <c r="AO5" s="17"/>
+      <c r="AP5" s="17"/>
+      <c r="AQ5" s="17"/>
+      <c r="AR5" s="17"/>
+      <c r="AS5" s="18"/>
     </row>
-    <row r="6" spans="1:42" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+    <row r="6" spans="1:51" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="26">
         <v>44298</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="29">
         <v>44312</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="57"/>
-      <c r="AA6" s="57"/>
-      <c r="AB6" s="57"/>
-      <c r="AC6" s="57"/>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="58"/>
-      <c r="AF6" s="59"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="56"/>
       <c r="AG6" s="13"/>
       <c r="AH6" s="13"/>
       <c r="AI6" s="13"/>
       <c r="AJ6" s="13"/>
       <c r="AK6" s="13"/>
       <c r="AL6" s="14"/>
-      <c r="AM6" s="15"/>
+      <c r="AM6" s="56"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="14"/>
     </row>
-    <row r="7" spans="1:42" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="58"/>
-      <c r="AF7" s="59"/>
+    <row r="7" spans="1:51" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="58"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="56"/>
       <c r="AG7" s="13"/>
       <c r="AH7" s="13"/>
       <c r="AI7" s="13"/>
       <c r="AJ7" s="13"/>
       <c r="AK7" s="13"/>
       <c r="AL7" s="14"/>
-      <c r="AM7" s="15"/>
+      <c r="AM7" s="56"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="14"/>
     </row>
-    <row r="8" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+    <row r="8" spans="1:51" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="26">
         <v>44298</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="29">
         <v>44312</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="57"/>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="58"/>
-      <c r="AF8" s="59"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="56"/>
       <c r="AG8" s="13"/>
       <c r="AH8" s="13"/>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="13"/>
       <c r="AK8" s="13"/>
       <c r="AL8" s="14"/>
-      <c r="AM8" s="15"/>
+      <c r="AM8" s="56"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="14"/>
     </row>
-    <row r="9" spans="1:42" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="57"/>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="59"/>
+    <row r="9" spans="1:51" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="56"/>
       <c r="AG9" s="13"/>
       <c r="AH9" s="13"/>
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13"/>
       <c r="AK9" s="13"/>
       <c r="AL9" s="14"/>
-      <c r="AM9" s="15"/>
+      <c r="AM9" s="56"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="14"/>
     </row>
-    <row r="10" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+    <row r="10" spans="1:51" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="26">
         <v>44305</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="29">
         <v>44330</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="57"/>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="58"/>
-      <c r="AF10" s="59"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="54"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="56"/>
       <c r="AG10" s="13"/>
       <c r="AH10" s="13"/>
       <c r="AI10" s="13"/>
       <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="14"/>
-      <c r="AM10" s="15"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="88"/>
+      <c r="AM10" s="89"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="87"/>
+      <c r="AS10" s="88"/>
     </row>
-    <row r="11" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="58"/>
-      <c r="AF11" s="59"/>
+    <row r="11" spans="1:51" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="56"/>
       <c r="AG11" s="13"/>
       <c r="AH11" s="13"/>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
       <c r="AK11" s="13"/>
       <c r="AL11" s="14"/>
-      <c r="AM11" s="15"/>
+      <c r="AM11" s="56"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="14"/>
     </row>
-    <row r="12" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:51" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="26">
         <v>44298</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="29">
         <v>44311</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="57"/>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="59"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="54"/>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="54"/>
+      <c r="AC12" s="54"/>
+      <c r="AD12" s="54"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="56"/>
       <c r="AG12" s="13"/>
       <c r="AH12" s="13"/>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="13"/>
       <c r="AK12" s="13"/>
       <c r="AL12" s="14"/>
-      <c r="AM12" s="15"/>
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="14"/>
     </row>
-    <row r="13" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="57"/>
-      <c r="AD13" s="57"/>
-      <c r="AE13" s="58"/>
-      <c r="AF13" s="59"/>
+    <row r="13" spans="1:51" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="56"/>
       <c r="AG13" s="13"/>
       <c r="AH13" s="13"/>
       <c r="AI13" s="13"/>
       <c r="AJ13" s="13"/>
       <c r="AK13" s="13"/>
       <c r="AL13" s="14"/>
-      <c r="AM13" s="15"/>
+      <c r="AM13" s="56"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="14"/>
     </row>
-    <row r="14" spans="1:42" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+    <row r="14" spans="1:51" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="26">
         <v>44298</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="29">
         <v>44330</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="57"/>
-      <c r="AD14" s="57"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="59"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="56"/>
       <c r="AG14" s="13"/>
       <c r="AH14" s="13"/>
       <c r="AI14" s="13"/>
       <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="14"/>
-      <c r="AM14" s="15"/>
+      <c r="AK14" s="87"/>
+      <c r="AL14" s="88"/>
+      <c r="AM14" s="89"/>
+      <c r="AN14" s="87"/>
+      <c r="AO14" s="87"/>
+      <c r="AP14" s="87"/>
+      <c r="AQ14" s="87"/>
+      <c r="AR14" s="87"/>
+      <c r="AS14" s="88"/>
     </row>
-    <row r="15" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="57"/>
-      <c r="AC15" s="57"/>
-      <c r="AD15" s="57"/>
-      <c r="AE15" s="58"/>
-      <c r="AF15" s="59"/>
+    <row r="15" spans="1:51" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="55"/>
+      <c r="AF15" s="56"/>
       <c r="AG15" s="13"/>
       <c r="AH15" s="13"/>
       <c r="AI15" s="13"/>
       <c r="AJ15" s="13"/>
       <c r="AK15" s="13"/>
       <c r="AL15" s="14"/>
-      <c r="AM15" s="15"/>
+      <c r="AM15" s="56"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="14"/>
     </row>
-    <row r="16" spans="1:42" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+    <row r="16" spans="1:51" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="18"/>
-      <c r="AH16" s="18"/>
-      <c r="AI16" s="18"/>
-      <c r="AJ16" s="18"/>
-      <c r="AK16" s="18"/>
-      <c r="AL16" s="19"/>
-      <c r="AM16" s="20"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="18"/>
+      <c r="AM16" s="16"/>
+      <c r="AN16" s="17"/>
+      <c r="AO16" s="17"/>
+      <c r="AP16" s="17"/>
+      <c r="AQ16" s="17"/>
+      <c r="AR16" s="17"/>
+      <c r="AS16" s="18"/>
     </row>
-    <row r="17" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
+    <row r="17" spans="1:45" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="26">
         <v>44298</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="29">
         <v>44311</v>
       </c>
       <c r="D17" s="12"/>
@@ -3215,23 +3574,29 @@
       <c r="AJ17" s="13"/>
       <c r="AK17" s="13"/>
       <c r="AL17" s="14"/>
-      <c r="AM17" s="15"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="13"/>
+      <c r="AS17" s="14"/>
     </row>
-    <row r="18" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
+    <row r="18" spans="1:45" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="14"/>
@@ -3256,16 +3621,22 @@
       <c r="AJ18" s="13"/>
       <c r="AK18" s="13"/>
       <c r="AL18" s="14"/>
-      <c r="AM18" s="15"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="13"/>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="14"/>
     </row>
-    <row r="19" spans="1:39" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+    <row r="19" spans="1:45" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="26">
         <v>44298</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="29">
         <v>44311</v>
       </c>
       <c r="D19" s="12"/>
@@ -3303,21 +3674,27 @@
       <c r="AJ19" s="13"/>
       <c r="AK19" s="13"/>
       <c r="AL19" s="14"/>
-      <c r="AM19" s="15"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="13"/>
+      <c r="AS19" s="14"/>
     </row>
-    <row r="20" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="70"/>
+    <row r="20" spans="1:45" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="66"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
@@ -3344,16 +3721,22 @@
       <c r="AJ20" s="13"/>
       <c r="AK20" s="13"/>
       <c r="AL20" s="14"/>
-      <c r="AM20" s="15"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="14"/>
     </row>
-    <row r="21" spans="1:39" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+    <row r="21" spans="1:45" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="26">
         <v>44301</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="29">
         <v>44311</v>
       </c>
       <c r="D21" s="12"/>
@@ -3391,26 +3774,32 @@
       <c r="AJ21" s="13"/>
       <c r="AK21" s="13"/>
       <c r="AL21" s="14"/>
-      <c r="AM21" s="15"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="13"/>
+      <c r="AQ21" s="13"/>
+      <c r="AR21" s="13"/>
+      <c r="AS21" s="14"/>
     </row>
-    <row r="22" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="32"/>
+    <row r="22" spans="1:45" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="12"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="71"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="67"/>
       <c r="R22" s="12"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
@@ -3432,16 +3821,22 @@
       <c r="AJ22" s="13"/>
       <c r="AK22" s="13"/>
       <c r="AL22" s="14"/>
-      <c r="AM22" s="15"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="14"/>
     </row>
-    <row r="23" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+    <row r="23" spans="1:45" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="26">
         <v>44301</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="29">
         <v>44318</v>
       </c>
       <c r="D23" s="12"/>
@@ -3479,12 +3874,18 @@
       <c r="AJ23" s="13"/>
       <c r="AK23" s="13"/>
       <c r="AL23" s="14"/>
-      <c r="AM23" s="15"/>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="13"/>
+      <c r="AP23" s="13"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="13"/>
+      <c r="AS23" s="14"/>
     </row>
-    <row r="24" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="32"/>
+    <row r="24" spans="1:45" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="57"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="12"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -3520,16 +3921,22 @@
       <c r="AJ24" s="13"/>
       <c r="AK24" s="13"/>
       <c r="AL24" s="14"/>
-      <c r="AM24" s="15"/>
+      <c r="AM24" s="12"/>
+      <c r="AN24" s="13"/>
+      <c r="AO24" s="13"/>
+      <c r="AP24" s="13"/>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="13"/>
+      <c r="AS24" s="14"/>
     </row>
-    <row r="25" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:45" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="26">
         <v>44301</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="29">
         <v>44311</v>
       </c>
       <c r="D25" s="12"/>
@@ -3567,26 +3974,32 @@
       <c r="AJ25" s="13"/>
       <c r="AK25" s="13"/>
       <c r="AL25" s="14"/>
-      <c r="AM25" s="15"/>
+      <c r="AM25" s="12"/>
+      <c r="AN25" s="13"/>
+      <c r="AO25" s="13"/>
+      <c r="AP25" s="13"/>
+      <c r="AQ25" s="13"/>
+      <c r="AR25" s="13"/>
+      <c r="AS25" s="14"/>
     </row>
-    <row r="26" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="12"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="71"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="67"/>
       <c r="R26" s="12"/>
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
@@ -3608,16 +4021,22 @@
       <c r="AJ26" s="13"/>
       <c r="AK26" s="13"/>
       <c r="AL26" s="14"/>
-      <c r="AM26" s="15"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="13"/>
+      <c r="AO26" s="13"/>
+      <c r="AP26" s="13"/>
+      <c r="AQ26" s="13"/>
+      <c r="AR26" s="13"/>
+      <c r="AS26" s="14"/>
     </row>
-    <row r="27" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="60" t="s">
+    <row r="27" spans="1:45" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="26">
         <v>44311</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="29">
         <v>44318</v>
       </c>
       <c r="D27" s="12"/>
@@ -3641,26 +4060,32 @@
       <c r="V27" s="13"/>
       <c r="W27" s="13"/>
       <c r="X27" s="14"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="13"/>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="13"/>
-      <c r="AK27" s="13"/>
-      <c r="AL27" s="14"/>
-      <c r="AM27" s="15"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="87"/>
+      <c r="AA27" s="87"/>
+      <c r="AB27" s="87"/>
+      <c r="AC27" s="87"/>
+      <c r="AD27" s="87"/>
+      <c r="AE27" s="88"/>
+      <c r="AF27" s="89"/>
+      <c r="AG27" s="87"/>
+      <c r="AH27" s="87"/>
+      <c r="AI27" s="87"/>
+      <c r="AJ27" s="87"/>
+      <c r="AK27" s="87"/>
+      <c r="AL27" s="88"/>
+      <c r="AM27" s="12"/>
+      <c r="AN27" s="13"/>
+      <c r="AO27" s="13"/>
+      <c r="AP27" s="13"/>
+      <c r="AQ27" s="13"/>
+      <c r="AR27" s="13"/>
+      <c r="AS27" s="14"/>
     </row>
-    <row r="28" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="32"/>
+    <row r="28" spans="1:45" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="57"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="12"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -3696,16 +4121,22 @@
       <c r="AJ28" s="13"/>
       <c r="AK28" s="13"/>
       <c r="AL28" s="14"/>
-      <c r="AM28" s="15"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="13"/>
+      <c r="AO28" s="13"/>
+      <c r="AP28" s="13"/>
+      <c r="AQ28" s="13"/>
+      <c r="AR28" s="13"/>
+      <c r="AS28" s="14"/>
     </row>
-    <row r="29" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:45" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="26">
         <v>44301</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="29">
         <v>44330</v>
       </c>
       <c r="D29" s="12"/>
@@ -3741,13 +4172,19 @@
       <c r="AH29" s="13"/>
       <c r="AI29" s="13"/>
       <c r="AJ29" s="13"/>
-      <c r="AK29" s="13"/>
-      <c r="AL29" s="14"/>
-      <c r="AM29" s="15"/>
+      <c r="AK29" s="87"/>
+      <c r="AL29" s="88"/>
+      <c r="AM29" s="89"/>
+      <c r="AN29" s="87"/>
+      <c r="AO29" s="87"/>
+      <c r="AP29" s="87"/>
+      <c r="AQ29" s="87"/>
+      <c r="AR29" s="87"/>
+      <c r="AS29" s="14"/>
     </row>
-    <row r="30" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="29"/>
-      <c r="C30" s="32"/>
+    <row r="30" spans="1:45" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="26"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="12"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
@@ -3783,16 +4220,22 @@
       <c r="AJ30" s="13"/>
       <c r="AK30" s="13"/>
       <c r="AL30" s="14"/>
-      <c r="AM30" s="15"/>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="13"/>
+      <c r="AQ30" s="13"/>
+      <c r="AR30" s="13"/>
+      <c r="AS30" s="14"/>
     </row>
-    <row r="31" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+    <row r="31" spans="1:45" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B31" s="26">
         <v>44305</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="29">
         <v>44330</v>
       </c>
       <c r="D31" s="12"/>
@@ -3830,11 +4273,17 @@
       <c r="AJ31" s="13"/>
       <c r="AK31" s="13"/>
       <c r="AL31" s="14"/>
-      <c r="AM31" s="15"/>
+      <c r="AM31" s="12"/>
+      <c r="AN31" s="13"/>
+      <c r="AO31" s="13"/>
+      <c r="AP31" s="13"/>
+      <c r="AQ31" s="13"/>
+      <c r="AR31" s="13"/>
+      <c r="AS31" s="14"/>
     </row>
-    <row r="32" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="29"/>
-      <c r="C32" s="32"/>
+    <row r="32" spans="1:45" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="26"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="12"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -3870,16 +4319,22 @@
       <c r="AJ32" s="13"/>
       <c r="AK32" s="13"/>
       <c r="AL32" s="14"/>
-      <c r="AM32" s="15"/>
+      <c r="AM32" s="12"/>
+      <c r="AN32" s="13"/>
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="13"/>
+      <c r="AQ32" s="13"/>
+      <c r="AR32" s="13"/>
+      <c r="AS32" s="14"/>
     </row>
-    <row r="33" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+    <row r="33" spans="1:45" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="29">
+      <c r="B33" s="26">
         <v>44326</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="29">
         <v>44330</v>
       </c>
       <c r="D33" s="12"/>
@@ -3915,13 +4370,19 @@
       <c r="AH33" s="13"/>
       <c r="AI33" s="13"/>
       <c r="AJ33" s="13"/>
-      <c r="AK33" s="13"/>
-      <c r="AL33" s="14"/>
-      <c r="AM33" s="15"/>
+      <c r="AK33" s="87"/>
+      <c r="AL33" s="88"/>
+      <c r="AM33" s="89"/>
+      <c r="AN33" s="87"/>
+      <c r="AO33" s="87"/>
+      <c r="AP33" s="87"/>
+      <c r="AQ33" s="87"/>
+      <c r="AR33" s="87"/>
+      <c r="AS33" s="88"/>
     </row>
-    <row r="34" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="29"/>
-      <c r="C34" s="32"/>
+    <row r="34" spans="1:45" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="26"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="12"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
@@ -3957,16 +4418,22 @@
       <c r="AJ34" s="13"/>
       <c r="AK34" s="13"/>
       <c r="AL34" s="14"/>
-      <c r="AM34" s="15"/>
+      <c r="AM34" s="12"/>
+      <c r="AN34" s="13"/>
+      <c r="AO34" s="13"/>
+      <c r="AP34" s="13"/>
+      <c r="AQ34" s="13"/>
+      <c r="AR34" s="13"/>
+      <c r="AS34" s="14"/>
     </row>
-    <row r="35" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+    <row r="35" spans="1:45" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="29">
+      <c r="B35" s="26">
         <v>44326</v>
       </c>
-      <c r="C35" s="32">
+      <c r="C35" s="29">
         <v>44330</v>
       </c>
       <c r="D35" s="12"/>
@@ -4002,13 +4469,19 @@
       <c r="AH35" s="13"/>
       <c r="AI35" s="13"/>
       <c r="AJ35" s="13"/>
-      <c r="AK35" s="13"/>
-      <c r="AL35" s="14"/>
-      <c r="AM35" s="15"/>
+      <c r="AK35" s="87"/>
+      <c r="AL35" s="88"/>
+      <c r="AM35" s="89"/>
+      <c r="AN35" s="87"/>
+      <c r="AO35" s="87"/>
+      <c r="AP35" s="87"/>
+      <c r="AQ35" s="87"/>
+      <c r="AR35" s="87"/>
+      <c r="AS35" s="88"/>
     </row>
-    <row r="36" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="29"/>
-      <c r="C36" s="32"/>
+    <row r="36" spans="1:45" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="26"/>
+      <c r="C36" s="29"/>
       <c r="D36" s="12"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -4044,16 +4517,22 @@
       <c r="AJ36" s="13"/>
       <c r="AK36" s="13"/>
       <c r="AL36" s="14"/>
-      <c r="AM36" s="15"/>
+      <c r="AM36" s="12"/>
+      <c r="AN36" s="13"/>
+      <c r="AO36" s="13"/>
+      <c r="AP36" s="13"/>
+      <c r="AQ36" s="13"/>
+      <c r="AR36" s="13"/>
+      <c r="AS36" s="14"/>
     </row>
-    <row r="37" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+    <row r="37" spans="1:45" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="29">
+      <c r="B37" s="26">
         <v>44326</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="29">
         <v>44330</v>
       </c>
       <c r="D37" s="12"/>
@@ -4089,13 +4568,19 @@
       <c r="AH37" s="13"/>
       <c r="AI37" s="13"/>
       <c r="AJ37" s="13"/>
-      <c r="AK37" s="13"/>
-      <c r="AL37" s="14"/>
-      <c r="AM37" s="15"/>
+      <c r="AK37" s="87"/>
+      <c r="AL37" s="88"/>
+      <c r="AM37" s="89"/>
+      <c r="AN37" s="87"/>
+      <c r="AO37" s="87"/>
+      <c r="AP37" s="87"/>
+      <c r="AQ37" s="87"/>
+      <c r="AR37" s="87"/>
+      <c r="AS37" s="88"/>
     </row>
-    <row r="38" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="29"/>
-      <c r="C38" s="32"/>
+    <row r="38" spans="1:45" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="26"/>
+      <c r="C38" s="29"/>
       <c r="D38" s="12"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
@@ -4131,16 +4616,22 @@
       <c r="AJ38" s="13"/>
       <c r="AK38" s="13"/>
       <c r="AL38" s="14"/>
-      <c r="AM38" s="15"/>
+      <c r="AM38" s="12"/>
+      <c r="AN38" s="13"/>
+      <c r="AO38" s="13"/>
+      <c r="AP38" s="13"/>
+      <c r="AQ38" s="13"/>
+      <c r="AR38" s="13"/>
+      <c r="AS38" s="14"/>
     </row>
-    <row r="39" spans="1:39" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+    <row r="39" spans="1:45" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="29">
+      <c r="B39" s="26">
         <v>44326</v>
       </c>
-      <c r="C39" s="32">
+      <c r="C39" s="29">
         <v>44330</v>
       </c>
       <c r="D39" s="12"/>
@@ -4176,141 +4667,165 @@
       <c r="AH39" s="13"/>
       <c r="AI39" s="13"/>
       <c r="AJ39" s="13"/>
-      <c r="AK39" s="13"/>
-      <c r="AL39" s="14"/>
-      <c r="AM39" s="15"/>
+      <c r="AK39" s="87"/>
+      <c r="AL39" s="88"/>
+      <c r="AM39" s="89"/>
+      <c r="AN39" s="87"/>
+      <c r="AO39" s="87"/>
+      <c r="AP39" s="87"/>
+      <c r="AQ39" s="87"/>
+      <c r="AR39" s="87"/>
+      <c r="AS39" s="88"/>
     </row>
-    <row r="40" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="62"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="66"/>
-      <c r="R40" s="65"/>
-      <c r="S40" s="62"/>
-      <c r="T40" s="62"/>
-      <c r="U40" s="62"/>
-      <c r="V40" s="62"/>
-      <c r="W40" s="62"/>
-      <c r="X40" s="66"/>
-      <c r="Y40" s="65"/>
-      <c r="Z40" s="62"/>
-      <c r="AA40" s="62"/>
-      <c r="AB40" s="62"/>
-      <c r="AC40" s="62"/>
-      <c r="AD40" s="62"/>
-      <c r="AE40" s="66"/>
-      <c r="AF40" s="65"/>
-      <c r="AG40" s="62"/>
-      <c r="AH40" s="62"/>
-      <c r="AI40" s="62"/>
-      <c r="AJ40" s="62"/>
-      <c r="AK40" s="62"/>
-      <c r="AL40" s="66"/>
-      <c r="AM40" s="67"/>
+    <row r="40" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="59"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="63"/>
+      <c r="Y40" s="62"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="63"/>
+      <c r="AF40" s="62"/>
+      <c r="AG40" s="59"/>
+      <c r="AH40" s="59"/>
+      <c r="AI40" s="59"/>
+      <c r="AJ40" s="59"/>
+      <c r="AK40" s="59"/>
+      <c r="AL40" s="63"/>
+      <c r="AM40" s="62"/>
+      <c r="AN40" s="59"/>
+      <c r="AO40" s="59"/>
+      <c r="AP40" s="59"/>
+      <c r="AQ40" s="59"/>
+      <c r="AR40" s="59"/>
+      <c r="AS40" s="63"/>
     </row>
-    <row r="41" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
+    <row r="41" spans="1:45" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="23"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="23"/>
-      <c r="W41" s="23"/>
-      <c r="X41" s="24"/>
-      <c r="Y41" s="22"/>
-      <c r="Z41" s="23"/>
-      <c r="AA41" s="23"/>
-      <c r="AB41" s="23"/>
-      <c r="AC41" s="23"/>
-      <c r="AD41" s="23"/>
-      <c r="AE41" s="24"/>
-      <c r="AF41" s="22"/>
-      <c r="AG41" s="23"/>
-      <c r="AH41" s="23"/>
-      <c r="AI41" s="23"/>
-      <c r="AJ41" s="23"/>
-      <c r="AK41" s="23"/>
-      <c r="AL41" s="24"/>
-      <c r="AM41" s="25"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="21"/>
+      <c r="AD41" s="21"/>
+      <c r="AE41" s="22"/>
+      <c r="AF41" s="20"/>
+      <c r="AG41" s="21"/>
+      <c r="AH41" s="21"/>
+      <c r="AI41" s="21"/>
+      <c r="AJ41" s="21"/>
+      <c r="AK41" s="21"/>
+      <c r="AL41" s="22"/>
+      <c r="AM41" s="20"/>
+      <c r="AN41" s="21"/>
+      <c r="AO41" s="21"/>
+      <c r="AP41" s="21"/>
+      <c r="AQ41" s="21"/>
+      <c r="AR41" s="21"/>
+      <c r="AS41" s="22"/>
     </row>
-    <row r="42" spans="1:39" s="16" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="47" t="s">
+    <row r="42" spans="1:45" s="15" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="51"/>
-      <c r="T42" s="51"/>
-      <c r="U42" s="51"/>
-      <c r="V42" s="51"/>
-      <c r="W42" s="51"/>
-      <c r="X42" s="52"/>
-      <c r="Y42" s="50"/>
-      <c r="Z42" s="51"/>
-      <c r="AA42" s="51"/>
-      <c r="AB42" s="51"/>
-      <c r="AC42" s="51"/>
-      <c r="AD42" s="51"/>
-      <c r="AE42" s="52"/>
-      <c r="AF42" s="50"/>
-      <c r="AG42" s="51"/>
-      <c r="AH42" s="51"/>
-      <c r="AI42" s="51"/>
-      <c r="AJ42" s="51"/>
-      <c r="AK42" s="51"/>
-      <c r="AL42" s="52"/>
-      <c r="AM42" s="15"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="47"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="48"/>
+      <c r="W42" s="48"/>
+      <c r="X42" s="49"/>
+      <c r="Y42" s="47"/>
+      <c r="Z42" s="48"/>
+      <c r="AA42" s="48"/>
+      <c r="AB42" s="48"/>
+      <c r="AC42" s="48"/>
+      <c r="AD42" s="48"/>
+      <c r="AE42" s="49"/>
+      <c r="AF42" s="47"/>
+      <c r="AG42" s="48"/>
+      <c r="AH42" s="48"/>
+      <c r="AI42" s="48"/>
+      <c r="AJ42" s="48"/>
+      <c r="AK42" s="48"/>
+      <c r="AL42" s="49"/>
+      <c r="AM42" s="47"/>
+      <c r="AN42" s="48"/>
+      <c r="AO42" s="48"/>
+      <c r="AP42" s="48"/>
+      <c r="AQ42" s="48"/>
+      <c r="AR42" s="48"/>
+      <c r="AS42" s="49"/>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="35"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="10"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -4346,20 +4861,27 @@
       <c r="AJ43" s="5"/>
       <c r="AK43" s="5"/>
       <c r="AL43" s="11"/>
+      <c r="AM43" s="10"/>
+      <c r="AN43" s="5"/>
+      <c r="AO43" s="5"/>
+      <c r="AP43" s="5"/>
+      <c r="AQ43" s="5"/>
+      <c r="AR43" s="5"/>
+      <c r="AS43" s="11"/>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
@@ -4396,652 +4918,781 @@
       <c r="B59" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AN4:AO4"/>
+  <mergeCells count="11">
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="K2:Q2"/>
     <mergeCell ref="R2:X2"/>
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AL2"/>
+    <mergeCell ref="AM2:AS2"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:J9 D16:AL43">
-    <cfRule type="expression" dxfId="139" priority="5539" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="5582" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B8,D$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:J9 D16:AL42">
-    <cfRule type="expression" dxfId="138" priority="5536">
+    <cfRule type="expression" dxfId="166" priority="5579">
       <formula>AND(D$3&gt;=$B8,D$3&lt;=$C8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="5538" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="5581" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B8,D$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:J9 D16:AL42">
-    <cfRule type="expression" dxfId="136" priority="5537" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="5580" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B8,D$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:Q9">
-    <cfRule type="expression" dxfId="135" priority="5533" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="5576" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B8,K$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:Q9">
-    <cfRule type="expression" dxfId="134" priority="5530">
+    <cfRule type="expression" dxfId="162" priority="5573">
       <formula>AND(K$3&gt;=$B8,K$3&lt;=$C8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="5532" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="5575" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B8,K$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:Q9">
-    <cfRule type="expression" dxfId="132" priority="5531" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="5574" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B8,K$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:X9">
-    <cfRule type="expression" dxfId="131" priority="5527" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="5570" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B8,R$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:X9">
-    <cfRule type="expression" dxfId="130" priority="5524">
+    <cfRule type="expression" dxfId="158" priority="5567">
       <formula>AND(R$3&gt;=$B8,R$3&lt;=$C8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="5526" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="5569" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B8,R$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:X9">
-    <cfRule type="expression" dxfId="128" priority="5525" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="5568" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B8,R$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AE9">
-    <cfRule type="expression" dxfId="127" priority="5521" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="5564" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B8,Y$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AE9">
-    <cfRule type="expression" dxfId="126" priority="5518">
+    <cfRule type="expression" dxfId="154" priority="5561">
       <formula>AND(Y$3&gt;=$B8,Y$3&lt;=$C8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="5520" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="5563" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B8,Y$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AE9">
-    <cfRule type="expression" dxfId="124" priority="5519" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="5562" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B8,Y$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF8:AL9">
-    <cfRule type="expression" dxfId="123" priority="5515" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="5558" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B8,AF$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF8:AL9">
-    <cfRule type="expression" dxfId="122" priority="5512">
+    <cfRule type="expression" dxfId="150" priority="5555">
       <formula>AND(AF$3&gt;=$B8,AF$3&lt;=$C8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="5514" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="5557" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B8,AF$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF8:AL9">
-    <cfRule type="expression" dxfId="120" priority="5513" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="5556" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B8,AF$3&lt;=$C8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:J11">
-    <cfRule type="expression" dxfId="119" priority="5366" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="5409" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B10,D$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:J11">
-    <cfRule type="expression" dxfId="118" priority="5363">
+    <cfRule type="expression" dxfId="146" priority="5406">
       <formula>AND(D$3&gt;=$B10,D$3&lt;=$C10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="5365" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="5408" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B10,D$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:J11">
-    <cfRule type="expression" dxfId="116" priority="5364" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="5407" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B10,D$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:Q11">
-    <cfRule type="expression" dxfId="115" priority="5361" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="5404" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B10,K$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:Q11">
-    <cfRule type="expression" dxfId="114" priority="5358">
+    <cfRule type="expression" dxfId="142" priority="5401">
       <formula>AND(K$3&gt;=$B10,K$3&lt;=$C10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="5360" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="5403" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B10,K$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:Q11">
-    <cfRule type="expression" dxfId="112" priority="5359" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="5402" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B10,K$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:X11">
-    <cfRule type="expression" dxfId="111" priority="5356" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="5399" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B10,R$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:X11">
-    <cfRule type="expression" dxfId="110" priority="5353">
+    <cfRule type="expression" dxfId="138" priority="5396">
       <formula>AND(R$3&gt;=$B10,R$3&lt;=$C10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="5355" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="5398" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B10,R$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:X11">
-    <cfRule type="expression" dxfId="108" priority="5354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="5397" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B10,R$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10:AE11">
-    <cfRule type="expression" dxfId="107" priority="5351" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="5394" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B10,Y$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10:AE11">
-    <cfRule type="expression" dxfId="106" priority="5348">
+    <cfRule type="expression" dxfId="134" priority="5391">
       <formula>AND(Y$3&gt;=$B10,Y$3&lt;=$C10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="5350" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="5393" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B10,Y$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10:AE11">
-    <cfRule type="expression" dxfId="104" priority="5349" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="5392" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B10,Y$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF10:AL11">
-    <cfRule type="expression" dxfId="103" priority="5346" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="5389" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B10,AF$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF10:AL11">
-    <cfRule type="expression" dxfId="102" priority="5343">
+    <cfRule type="expression" dxfId="130" priority="5386">
       <formula>AND(AF$3&gt;=$B10,AF$3&lt;=$C10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="5345" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="5388" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B10,AF$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF10:AL11">
-    <cfRule type="expression" dxfId="100" priority="5344" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="5387" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B10,AF$3&lt;=$C10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:J13">
-    <cfRule type="expression" dxfId="99" priority="5221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="5264" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B12,D$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:J13">
-    <cfRule type="expression" dxfId="98" priority="5218">
+    <cfRule type="expression" dxfId="126" priority="5261">
       <formula>AND(D$3&gt;=$B12,D$3&lt;=$C12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="5220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="5263" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B12,D$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:J13">
-    <cfRule type="expression" dxfId="96" priority="5219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="5262" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B12,D$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:Q13">
-    <cfRule type="expression" dxfId="95" priority="5216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="5259" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B12,K$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:Q13">
-    <cfRule type="expression" dxfId="94" priority="5213">
+    <cfRule type="expression" dxfId="122" priority="5256">
       <formula>AND(K$3&gt;=$B12,K$3&lt;=$C12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="5215" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="5258" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B12,K$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:Q13">
-    <cfRule type="expression" dxfId="92" priority="5214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="5257" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B12,K$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:X13">
-    <cfRule type="expression" dxfId="91" priority="5211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="5254" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B12,R$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:X13">
-    <cfRule type="expression" dxfId="90" priority="5208">
+    <cfRule type="expression" dxfId="118" priority="5251">
       <formula>AND(R$3&gt;=$B12,R$3&lt;=$C12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="5210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="5253" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B12,R$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:X13">
-    <cfRule type="expression" dxfId="88" priority="5209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="5252" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B12,R$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:AE13">
-    <cfRule type="expression" dxfId="87" priority="5206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="5249" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B12,Y$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:AE13">
-    <cfRule type="expression" dxfId="86" priority="5203">
+    <cfRule type="expression" dxfId="114" priority="5246">
       <formula>AND(Y$3&gt;=$B12,Y$3&lt;=$C12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="5205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="5248" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B12,Y$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:AE13">
-    <cfRule type="expression" dxfId="84" priority="5204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="5247" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B12,Y$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF12:AL13">
-    <cfRule type="expression" dxfId="83" priority="5201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="5244" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B12,AF$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF12:AL13">
-    <cfRule type="expression" dxfId="82" priority="5198">
+    <cfRule type="expression" dxfId="110" priority="5241">
       <formula>AND(AF$3&gt;=$B12,AF$3&lt;=$C12)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="5200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="5243" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B12,AF$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF12:AL13">
-    <cfRule type="expression" dxfId="80" priority="5199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="5242" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B12,AF$3&lt;=$C12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:J15">
-    <cfRule type="expression" dxfId="79" priority="5076" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="5119" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B14,D$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:J15">
-    <cfRule type="expression" dxfId="78" priority="5073">
+    <cfRule type="expression" dxfId="106" priority="5116">
       <formula>AND(D$3&gt;=$B14,D$3&lt;=$C14)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="5075" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="5118" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B14,D$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:J15">
-    <cfRule type="expression" dxfId="76" priority="5074" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="5117" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B14,D$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:Q15">
-    <cfRule type="expression" dxfId="75" priority="5071" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="5114" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B14,K$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:Q15">
-    <cfRule type="expression" dxfId="74" priority="5068">
+    <cfRule type="expression" dxfId="102" priority="5111">
       <formula>AND(K$3&gt;=$B14,K$3&lt;=$C14)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="5070" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="5113" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B14,K$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:Q15">
-    <cfRule type="expression" dxfId="72" priority="5069" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="5112" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B14,K$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14:X15">
-    <cfRule type="expression" dxfId="71" priority="5066" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="5109" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B14,R$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14:X15">
-    <cfRule type="expression" dxfId="70" priority="5063">
+    <cfRule type="expression" dxfId="98" priority="5106">
       <formula>AND(R$3&gt;=$B14,R$3&lt;=$C14)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="5065" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="5108" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B14,R$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14:X15">
-    <cfRule type="expression" dxfId="68" priority="5064" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="5107" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B14,R$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14:AE15">
-    <cfRule type="expression" dxfId="67" priority="5061" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="5104" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B14,Y$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14:AE15">
-    <cfRule type="expression" dxfId="66" priority="5058">
+    <cfRule type="expression" dxfId="94" priority="5101">
       <formula>AND(Y$3&gt;=$B14,Y$3&lt;=$C14)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="5060" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="5103" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B14,Y$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14:AE15">
-    <cfRule type="expression" dxfId="64" priority="5059" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="5102" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B14,Y$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF14:AL15">
-    <cfRule type="expression" dxfId="63" priority="5056" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="5099" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B14,AF$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF14:AL15">
-    <cfRule type="expression" dxfId="62" priority="5053">
+    <cfRule type="expression" dxfId="90" priority="5096">
       <formula>AND(AF$3&gt;=$B14,AF$3&lt;=$C14)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="5055" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="5098" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B14,AF$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF14:AL15">
-    <cfRule type="expression" dxfId="60" priority="5054" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="5097" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B14,AF$3&lt;=$C14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:J7">
-    <cfRule type="expression" dxfId="59" priority="581" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="624" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B6,D$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:J7">
-    <cfRule type="expression" dxfId="58" priority="578">
+    <cfRule type="expression" dxfId="86" priority="621">
       <formula>AND(D$3&gt;=$B6,D$3&lt;=$C6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="580" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="623" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B6,D$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:J7">
-    <cfRule type="expression" dxfId="56" priority="579" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="622" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B6,D$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:Q7">
-    <cfRule type="expression" dxfId="55" priority="576" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="619" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B6,K$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:Q7">
-    <cfRule type="expression" dxfId="54" priority="573">
+    <cfRule type="expression" dxfId="82" priority="616">
       <formula>AND(K$3&gt;=$B6,K$3&lt;=$C6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="575" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="618" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B6,K$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:Q7">
-    <cfRule type="expression" dxfId="52" priority="574" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="617" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B6,K$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:X7">
-    <cfRule type="expression" dxfId="51" priority="571" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="614" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B6,R$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:X7">
-    <cfRule type="expression" dxfId="50" priority="568">
+    <cfRule type="expression" dxfId="78" priority="611">
       <formula>AND(R$3&gt;=$B6,R$3&lt;=$C6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="570" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="613" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B6,R$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:X7">
-    <cfRule type="expression" dxfId="48" priority="569" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="612" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B6,R$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:AE7">
-    <cfRule type="expression" dxfId="47" priority="566" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="609" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B6,Y$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:AE7">
-    <cfRule type="expression" dxfId="46" priority="563">
+    <cfRule type="expression" dxfId="74" priority="606">
       <formula>AND(Y$3&gt;=$B6,Y$3&lt;=$C6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="565" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="608" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B6,Y$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:AE7">
-    <cfRule type="expression" dxfId="44" priority="564" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="607" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B6,Y$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF6:AL7">
-    <cfRule type="expression" dxfId="43" priority="561" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="604" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B6,AF$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF6:AL7">
-    <cfRule type="expression" dxfId="42" priority="558">
+    <cfRule type="expression" dxfId="70" priority="601">
       <formula>AND(AF$3&gt;=$B6,AF$3&lt;=$C6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="560" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="603" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B6,AF$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF6:AL7">
-    <cfRule type="expression" dxfId="40" priority="559" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="602" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B6,AF$3&lt;=$C6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:J5">
-    <cfRule type="expression" dxfId="39" priority="436" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="479" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B5,D$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:J5">
-    <cfRule type="expression" dxfId="38" priority="433">
+    <cfRule type="expression" dxfId="66" priority="476">
       <formula>AND(D$3&gt;=$B5,D$3&lt;=$C5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="435" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="478" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B5,D$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:J5">
-    <cfRule type="expression" dxfId="36" priority="434" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="477" stopIfTrue="1">
       <formula>_xludf.AND(D$3&gt;=$B5,D$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:Q5">
-    <cfRule type="expression" dxfId="35" priority="431" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="474" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B5,K$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:Q5">
-    <cfRule type="expression" dxfId="34" priority="428">
+    <cfRule type="expression" dxfId="62" priority="471">
       <formula>AND(K$3&gt;=$B5,K$3&lt;=$C5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="430" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="473" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B5,K$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:Q5">
-    <cfRule type="expression" dxfId="32" priority="429" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="472" stopIfTrue="1">
       <formula>_xludf.AND(K$3&gt;=$B5,K$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:X5">
-    <cfRule type="expression" dxfId="31" priority="426" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="469" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B5,R$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:X5">
-    <cfRule type="expression" dxfId="30" priority="423">
+    <cfRule type="expression" dxfId="58" priority="466">
       <formula>AND(R$3&gt;=$B5,R$3&lt;=$C5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="425" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="468" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B5,R$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:X5">
-    <cfRule type="expression" dxfId="28" priority="424" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="467" stopIfTrue="1">
       <formula>_xludf.AND(R$3&gt;=$B5,R$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5:AE5">
-    <cfRule type="expression" dxfId="27" priority="421" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="464" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B5,Y$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5:AE5">
-    <cfRule type="expression" dxfId="26" priority="418">
+    <cfRule type="expression" dxfId="54" priority="461">
       <formula>AND(Y$3&gt;=$B5,Y$3&lt;=$C5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="420" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="463" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B5,Y$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5:AE5">
-    <cfRule type="expression" dxfId="24" priority="419" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="462" stopIfTrue="1">
       <formula>_xludf.AND(Y$3&gt;=$B5,Y$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5:AL5">
-    <cfRule type="expression" dxfId="23" priority="416" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="459" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B5,AF$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5:AL5">
-    <cfRule type="expression" dxfId="22" priority="413">
+    <cfRule type="expression" dxfId="50" priority="456">
       <formula>AND(AF$3&gt;=$B5,AF$3&lt;=$C5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="415" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="458" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B5,AF$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5:AL5">
-    <cfRule type="expression" dxfId="20" priority="414" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="457" stopIfTrue="1">
       <formula>_xludf.AND(AF$3&gt;=$B5,AF$3&lt;=$C5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41:AL41">
-    <cfRule type="expression" dxfId="19" priority="6741" stopIfTrue="1">
+  <conditionalFormatting sqref="D41:AS41">
+    <cfRule type="expression" dxfId="47" priority="6784" stopIfTrue="1">
       <formula>_xludf.AND(WUO$3&gt;=$B1048562,WUO$3&lt;=$C1048562)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:AL42">
-    <cfRule type="expression" dxfId="18" priority="6742" stopIfTrue="1">
+  <conditionalFormatting sqref="D42:AS42">
+    <cfRule type="expression" dxfId="46" priority="6785" stopIfTrue="1">
       <formula>_xludf.AND(WUO$3&gt;=$B1048560,WUO$3&lt;=$C1048560)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39:AL40">
-    <cfRule type="expression" dxfId="17" priority="6761" stopIfTrue="1">
+  <conditionalFormatting sqref="D39:AS40">
+    <cfRule type="expression" dxfId="45" priority="6804" stopIfTrue="1">
       <formula>_xludf.AND(WUO$3&gt;=$B1048564,WUO$3&lt;=$C1048564)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:AL32">
-    <cfRule type="expression" dxfId="16" priority="6779" stopIfTrue="1">
+  <conditionalFormatting sqref="D31:AS32">
+    <cfRule type="expression" dxfId="44" priority="6822" stopIfTrue="1">
       <formula>_xludf.AND(WUO$3&gt;=$B1048558,WUO$3&lt;=$C1048558)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37:AL38">
-    <cfRule type="expression" dxfId="15" priority="6829" stopIfTrue="1">
+  <conditionalFormatting sqref="D37:AS38">
+    <cfRule type="expression" dxfId="43" priority="6872" stopIfTrue="1">
       <formula>_xludf.AND(WUO$3&gt;=$B1048565,WUO$3&lt;=$C1048565)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35:AL36">
-    <cfRule type="expression" dxfId="14" priority="6841" stopIfTrue="1">
+  <conditionalFormatting sqref="D35:AS36">
+    <cfRule type="expression" dxfId="42" priority="6884" stopIfTrue="1">
       <formula>_xludf.AND(WUO$3&gt;=$B1048564,WUO$3&lt;=$C1048564)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:AL34">
-    <cfRule type="expression" dxfId="13" priority="6852" stopIfTrue="1">
+  <conditionalFormatting sqref="D33:AS34">
+    <cfRule type="expression" dxfId="41" priority="6895" stopIfTrue="1">
       <formula>_xludf.AND(WUO$3&gt;=$B1048563,WUO$3&lt;=$C1048563)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:AL30 D14:AL15">
-    <cfRule type="expression" dxfId="12" priority="6864" stopIfTrue="1">
+  <conditionalFormatting sqref="D29:AS30 D14:AS15">
+    <cfRule type="expression" dxfId="40" priority="6907" stopIfTrue="1">
       <formula>_xludf.AND(WUO$3&gt;=$B1048545,WUO$3&lt;=$C1048545)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:AL13">
-    <cfRule type="expression" dxfId="11" priority="6877" stopIfTrue="1">
+  <conditionalFormatting sqref="D12:AS13">
+    <cfRule type="expression" dxfId="39" priority="6920" stopIfTrue="1">
       <formula>_xludf.AND(WUO$3&gt;=$B1048544,WUO$3&lt;=$C1048544)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:AL28 D10:AL11">
-    <cfRule type="expression" dxfId="10" priority="6892" stopIfTrue="1">
+  <conditionalFormatting sqref="D27:AS28 D10:AS11">
+    <cfRule type="expression" dxfId="38" priority="6935" stopIfTrue="1">
       <formula>_xludf.AND(WUO$3&gt;=$B1048543,WUO$3&lt;=$C1048543)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:AL9 D25:AL26">
-    <cfRule type="expression" dxfId="9" priority="6908" stopIfTrue="1">
+  <conditionalFormatting sqref="D8:AS9 D25:AS26">
+    <cfRule type="expression" dxfId="37" priority="6951" stopIfTrue="1">
       <formula>_xludf.AND(WUO$3&gt;=$B1048542,WUO$3&lt;=$C1048542)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:AL7 D23:AL24">
-    <cfRule type="expression" dxfId="8" priority="6923" stopIfTrue="1">
+  <conditionalFormatting sqref="D5:AS7 D23:AS24">
+    <cfRule type="expression" dxfId="36" priority="6966" stopIfTrue="1">
       <formula>_xludf.AND(WUO$3&gt;=$B1048540,WUO$3&lt;=$C1048540)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:AL20">
-    <cfRule type="expression" dxfId="7" priority="6938" stopIfTrue="1">
+  <conditionalFormatting sqref="D19:AS20">
+    <cfRule type="expression" dxfId="35" priority="6981" stopIfTrue="1">
       <formula>_xludf.AND(WUO$3&gt;=$B1048557,WUO$3&lt;=$C1048557)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:AL22">
-    <cfRule type="expression" dxfId="6" priority="6939" stopIfTrue="1">
+  <conditionalFormatting sqref="D21:AS22">
+    <cfRule type="expression" dxfId="34" priority="6982" stopIfTrue="1">
       <formula>_xludf.AND(WUO$3&gt;=$B1048557,WUO$3&lt;=$C1048557)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:AL18">
-    <cfRule type="expression" dxfId="5" priority="6940" stopIfTrue="1">
+  <conditionalFormatting sqref="D16:AS18">
+    <cfRule type="expression" dxfId="33" priority="6983" stopIfTrue="1">
       <formula>_xludf.AND(WUO$3&gt;=$B1048556,WUO$3&lt;=$C1048556)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN2">
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
-      <formula>_xludf.AND(AN$3&gt;=$B2,AN$3&lt;=$C2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN2">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>AND(AN$3&gt;=$B2,AN$3&lt;=$C2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>_xludf.AND(AN$3&gt;=$B2,AN$3&lt;=$C2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN2">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>_xludf.AND(AN$3&gt;=$B2,AN$3&lt;=$C2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN2">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="AU2">
+    <cfRule type="expression" dxfId="32" priority="7031" stopIfTrue="1">
       <formula>_xludf.AND(WVY$3&gt;=$B1048537,WVY$3&lt;=$C1048537)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM16:AS43">
+    <cfRule type="expression" dxfId="31" priority="28" stopIfTrue="1">
+      <formula>_xludf.AND(AM$3&gt;=$B16,AM$3&lt;=$C16)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM16:AS42">
+    <cfRule type="expression" dxfId="30" priority="25">
+      <formula>AND(AM$3&gt;=$B16,AM$3&lt;=$C16)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="27" stopIfTrue="1">
+      <formula>_xludf.AND(AM$3&gt;=$B16,AM$3&lt;=$C16)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM16:AS42">
+    <cfRule type="expression" dxfId="28" priority="26" stopIfTrue="1">
+      <formula>_xludf.AND(AM$3&gt;=$B16,AM$3&lt;=$C16)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM8:AS9">
+    <cfRule type="expression" dxfId="27" priority="24" stopIfTrue="1">
+      <formula>_xludf.AND(AM$3&gt;=$B8,AM$3&lt;=$C8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM8:AS9">
+    <cfRule type="expression" dxfId="26" priority="21">
+      <formula>AND(AM$3&gt;=$B8,AM$3&lt;=$C8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
+      <formula>_xludf.AND(AM$3&gt;=$B8,AM$3&lt;=$C8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM8:AS9">
+    <cfRule type="expression" dxfId="24" priority="22" stopIfTrue="1">
+      <formula>_xludf.AND(AM$3&gt;=$B8,AM$3&lt;=$C8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM10:AS11">
+    <cfRule type="expression" dxfId="23" priority="20" stopIfTrue="1">
+      <formula>_xludf.AND(AM$3&gt;=$B10,AM$3&lt;=$C10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM10:AS11">
+    <cfRule type="expression" dxfId="22" priority="17">
+      <formula>AND(AM$3&gt;=$B10,AM$3&lt;=$C10)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="19" stopIfTrue="1">
+      <formula>_xludf.AND(AM$3&gt;=$B10,AM$3&lt;=$C10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM10:AS11">
+    <cfRule type="expression" dxfId="20" priority="18" stopIfTrue="1">
+      <formula>_xludf.AND(AM$3&gt;=$B10,AM$3&lt;=$C10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM12:AS13">
+    <cfRule type="expression" dxfId="19" priority="16" stopIfTrue="1">
+      <formula>_xludf.AND(AM$3&gt;=$B12,AM$3&lt;=$C12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM12:AS13">
+    <cfRule type="expression" dxfId="18" priority="13">
+      <formula>AND(AM$3&gt;=$B12,AM$3&lt;=$C12)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="15" stopIfTrue="1">
+      <formula>_xludf.AND(AM$3&gt;=$B12,AM$3&lt;=$C12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM12:AS13">
+    <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
+      <formula>_xludf.AND(AM$3&gt;=$B12,AM$3&lt;=$C12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM14:AS15">
+    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
+      <formula>_xludf.AND(AM$3&gt;=$B14,AM$3&lt;=$C14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM14:AS15">
+    <cfRule type="expression" dxfId="14" priority="9">
+      <formula>AND(AM$3&gt;=$B14,AM$3&lt;=$C14)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
+      <formula>_xludf.AND(AM$3&gt;=$B14,AM$3&lt;=$C14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM14:AS15">
+    <cfRule type="expression" dxfId="12" priority="10" stopIfTrue="1">
+      <formula>_xludf.AND(AM$3&gt;=$B14,AM$3&lt;=$C14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM6:AS7">
+    <cfRule type="expression" dxfId="11" priority="8" stopIfTrue="1">
+      <formula>_xludf.AND(AM$3&gt;=$B6,AM$3&lt;=$C6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM6:AS7">
+    <cfRule type="expression" dxfId="10" priority="5">
+      <formula>AND(AM$3&gt;=$B6,AM$3&lt;=$C6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+      <formula>_xludf.AND(AM$3&gt;=$B6,AM$3&lt;=$C6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM6:AS7">
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+      <formula>_xludf.AND(AM$3&gt;=$B6,AM$3&lt;=$C6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM5:AS5">
+    <cfRule type="expression" dxfId="7" priority="4" stopIfTrue="1">
+      <formula>_xludf.AND(AM$3&gt;=$B5,AM$3&lt;=$C5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM5:AS5">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>AND(AM$3&gt;=$B5,AM$3&lt;=$C5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+      <formula>_xludf.AND(AM$3&gt;=$B5,AM$3&lt;=$C5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM5:AS5">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+      <formula>_xludf.AND(AM$3&gt;=$B5,AM$3&lt;=$C5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU2">
+    <cfRule type="expression" dxfId="3" priority="7032" stopIfTrue="1">
+      <formula>_xludf.AND(AW$2&gt;=$B2,AW$2&lt;=$C2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU2">
+    <cfRule type="expression" dxfId="2" priority="7033">
+      <formula>AND(AW$2&gt;=$B2,AW$2&lt;=$C2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7034" stopIfTrue="1">
+      <formula>_xludf.AND(AW$2&gt;=$B2,AW$2&lt;=$C2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU2">
+    <cfRule type="expression" dxfId="0" priority="7035" stopIfTrue="1">
+      <formula>_xludf.AND(AW$2&gt;=$B2,AW$2&lt;=$C2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5050,6 +5701,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100571F54247BC38B42B68FF546FD641A1D" ma:contentTypeVersion="7" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6f5a7f306cc698eb530a48f0ec33c4f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="72ba5ab6-94b4-4976-9c37-49387433fc2a" xmlns:ns4="a79f06d0-d91c-4d9e-9d4b-10d5a51bed99" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d633cc0efc8a055519433b3dd4d735c2" ns3:_="" ns4:_="">
     <xsd:import namespace="72ba5ab6-94b4-4976-9c37-49387433fc2a"/>
@@ -5234,36 +5900,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B11DCB-18E0-42C9-A3FC-10BA34DAAC8F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1159D000-724B-43DA-9D7B-3FBEF47492D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="72ba5ab6-94b4-4976-9c37-49387433fc2a"/>
-    <ds:schemaRef ds:uri="a79f06d0-d91c-4d9e-9d4b-10d5a51bed99"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5286,9 +5926,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1159D000-724B-43DA-9D7B-3FBEF47492D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B11DCB-18E0-42C9-A3FC-10BA34DAAC8F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="72ba5ab6-94b4-4976-9c37-49387433fc2a"/>
+    <ds:schemaRef ds:uri="a79f06d0-d91c-4d9e-9d4b-10d5a51bed99"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>